--- a/data/Kelson2023.xlsx
+++ b/data/Kelson2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei/Documents/Work/2023- redclay aridity/RedClay_jet/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei/Documents/Work/2023- redclay westerly/RedClay_jet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7210F45A-FFF7-6E40-B64E-B81371B21665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B121A-59E6-9245-93B4-B1C3F15FA3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="960" windowWidth="28040" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="3040" windowWidth="28040" windowHeight="17080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isotope" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="633">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1910,6 +1910,36 @@
   </si>
   <si>
     <t>dp18c</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Inner Mongolia</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Afar, Ethiopia</t>
+  </si>
+  <si>
+    <t>Mendoza, Argentina</t>
+  </si>
+  <si>
+    <t>Atacama Desert, Chile</t>
+  </si>
+  <si>
+    <t>Serengeti, Tanzania</t>
   </si>
 </sst>
 </file>
@@ -2770,18 +2800,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>586</v>
       </c>
@@ -2795,19 +2826,34 @@
         <v>151</v>
       </c>
       <c r="E1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J1" t="s">
         <v>622</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>589</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>621</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2820,20 +2866,35 @@
       <c r="D2">
         <v>40.335700000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>461</v>
+      </c>
+      <c r="H2">
+        <v>2284</v>
+      </c>
+      <c r="I2">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="J2">
         <v>24.927</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G2">
+      <c r="L2">
         <v>-83</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -2846,20 +2907,35 @@
       <c r="D3">
         <v>40.494999999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>403</v>
+      </c>
+      <c r="H3">
+        <v>2318</v>
+      </c>
+      <c r="I3">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="J3">
         <v>28.138999999999999</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G3">
+      <c r="L3">
         <v>-101</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -2872,20 +2948,35 @@
       <c r="D4">
         <v>40.494999999999997</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>403</v>
+      </c>
+      <c r="H4">
+        <v>2318</v>
+      </c>
+      <c r="I4">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="J4">
         <v>28.44</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.02</v>
       </c>
-      <c r="G4">
+      <c r="L4">
         <v>-92</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -2898,20 +2989,35 @@
       <c r="D5">
         <v>40.494999999999997</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>403</v>
+      </c>
+      <c r="H5">
+        <v>2318</v>
+      </c>
+      <c r="I5">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="J5">
         <v>26.936</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.51100000000000001</v>
       </c>
-      <c r="G5">
+      <c r="L5">
         <v>-78</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -2924,20 +3030,35 @@
       <c r="D6">
         <v>111.57429999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>227</v>
+      </c>
+      <c r="H6">
+        <v>1444</v>
+      </c>
+      <c r="I6">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="J6">
         <v>22.812999999999999</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.8240000000000001</v>
       </c>
-      <c r="G6">
+      <c r="L6">
         <v>-104</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2950,20 +3071,35 @@
       <c r="D7">
         <v>116.789</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>238</v>
+      </c>
+      <c r="H7">
+        <v>2604</v>
+      </c>
+      <c r="I7">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="J7">
         <v>20.190000000000001</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.36799999999999999</v>
       </c>
-      <c r="G7">
+      <c r="L7">
         <v>-75</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2976,20 +3112,35 @@
       <c r="D8">
         <v>39.661700000000003</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>726</v>
+      </c>
+      <c r="H8">
+        <v>2134</v>
+      </c>
+      <c r="I8">
+        <v>0.34</v>
+      </c>
+      <c r="J8">
         <v>25.428999999999998</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>0.182</v>
       </c>
-      <c r="G8">
+      <c r="L8">
         <v>-73</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -3002,20 +3153,35 @@
       <c r="D9">
         <v>96.467699999999994</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1010</v>
+      </c>
+      <c r="H9">
+        <v>1721</v>
+      </c>
+      <c r="I9">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="J9">
         <v>27.236999999999998</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>2.1349999999999998</v>
       </c>
-      <c r="G9">
+      <c r="L9">
         <v>-82</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3028,20 +3194,35 @@
       <c r="D10">
         <v>96.3</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1022</v>
+      </c>
+      <c r="H10">
+        <v>1728</v>
+      </c>
+      <c r="I10">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="J10">
         <v>27.036000000000001</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G10">
+      <c r="L10">
         <v>-82</v>
       </c>
-      <c r="H10">
+      <c r="M10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3054,20 +3235,35 @@
       <c r="D11">
         <v>96.056299999999993</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1015</v>
+      </c>
+      <c r="H11">
+        <v>1689</v>
+      </c>
+      <c r="I11">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="J11">
         <v>26.635000000000002</v>
       </c>
-      <c r="F11">
+      <c r="K11">
         <v>0.442</v>
       </c>
-      <c r="G11">
+      <c r="L11">
         <v>-77</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3080,20 +3276,35 @@
       <c r="D12">
         <v>96.467699999999994</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>626</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>1010</v>
+      </c>
+      <c r="H12">
+        <v>1721</v>
+      </c>
+      <c r="I12">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="J12">
         <v>27.236999999999998</v>
       </c>
-      <c r="F12">
+      <c r="K12">
         <v>0.82299999999999995</v>
       </c>
-      <c r="G12">
+      <c r="L12">
         <v>-75</v>
       </c>
-      <c r="H12">
+      <c r="M12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -3106,20 +3317,35 @@
       <c r="D13">
         <v>96.3</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>626</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>1022</v>
+      </c>
+      <c r="H13">
+        <v>1728</v>
+      </c>
+      <c r="I13">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="J13">
         <v>27.135999999999999</v>
       </c>
-      <c r="F13">
+      <c r="K13">
         <v>0.99</v>
       </c>
-      <c r="G13">
+      <c r="L13">
         <v>-76</v>
       </c>
-      <c r="H13">
+      <c r="M13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -3132,20 +3358,35 @@
       <c r="D14">
         <v>68.905299999999997</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>245</v>
+      </c>
+      <c r="H14">
+        <v>1861</v>
+      </c>
+      <c r="I14">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="J14">
         <v>26.635000000000002</v>
       </c>
-      <c r="F14">
+      <c r="K14">
         <v>0.50800000000000001</v>
       </c>
-      <c r="G14">
+      <c r="L14">
         <v>-96</v>
       </c>
-      <c r="H14">
+      <c r="M14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -3158,20 +3399,35 @@
       <c r="D15">
         <v>68.905299999999997</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>245</v>
+      </c>
+      <c r="H15">
+        <v>1861</v>
+      </c>
+      <c r="I15">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="J15">
         <v>27.135999999999999</v>
       </c>
-      <c r="F15">
+      <c r="K15">
         <v>1.1220000000000001</v>
       </c>
-      <c r="G15">
+      <c r="L15">
         <v>-95</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3184,20 +3440,35 @@
       <c r="D16">
         <v>67.902799999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>271</v>
+      </c>
+      <c r="H16">
+        <v>1787</v>
+      </c>
+      <c r="I16">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="J16">
         <v>21.895</v>
       </c>
-      <c r="F16">
+      <c r="K16">
         <v>1.0649999999999999</v>
       </c>
-      <c r="G16">
+      <c r="L16">
         <v>-87</v>
       </c>
-      <c r="H16">
+      <c r="M16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3210,20 +3481,35 @@
       <c r="D17">
         <v>67.902799999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>271</v>
+      </c>
+      <c r="H17">
+        <v>1787</v>
+      </c>
+      <c r="I17">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="J17">
         <v>21.795000000000002</v>
       </c>
-      <c r="F17">
+      <c r="K17">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G17">
+      <c r="L17">
         <v>-75</v>
       </c>
-      <c r="H17">
+      <c r="M17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3236,20 +3522,35 @@
       <c r="D18">
         <v>121.837</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>625</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>442</v>
+      </c>
+      <c r="H18">
+        <v>1726</v>
+      </c>
+      <c r="I18">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J18">
         <v>25.59</v>
       </c>
-      <c r="F18">
+      <c r="K18">
         <v>0.91800000000000004</v>
       </c>
-      <c r="G18">
+      <c r="L18">
         <v>-67</v>
       </c>
-      <c r="H18">
+      <c r="M18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -3262,20 +3563,35 @@
       <c r="D19">
         <v>121.837</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>625</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>442</v>
+      </c>
+      <c r="H19">
+        <v>1726</v>
+      </c>
+      <c r="I19">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J19">
         <v>25.6</v>
       </c>
-      <c r="F19">
+      <c r="K19">
         <v>1.4450000000000001</v>
       </c>
-      <c r="G19">
+      <c r="L19">
         <v>-73</v>
       </c>
-      <c r="H19">
+      <c r="M19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -3288,20 +3604,35 @@
       <c r="D20">
         <v>119.0663</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>627</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>131</v>
+      </c>
+      <c r="H20">
+        <v>1998</v>
+      </c>
+      <c r="I20">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J20">
         <v>21.643000000000001</v>
       </c>
-      <c r="F20">
+      <c r="K20">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G20">
+      <c r="L20">
         <v>-106</v>
       </c>
-      <c r="H20">
+      <c r="M20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -3314,20 +3645,35 @@
       <c r="D21">
         <v>120.3155</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>625</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>565</v>
+      </c>
+      <c r="H21">
+        <v>1662</v>
+      </c>
+      <c r="I21">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="J21">
         <v>18.228000000000002</v>
       </c>
-      <c r="F21">
+      <c r="K21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G21">
+      <c r="L21">
         <v>-69</v>
       </c>
-      <c r="H21">
+      <c r="M21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>290</v>
       </c>
@@ -3340,17 +3686,32 @@
       <c r="D22">
         <v>116.1401</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>625</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>79</v>
+      </c>
+      <c r="H22">
+        <v>3162</v>
+      </c>
+      <c r="I22">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="J22">
         <v>28.64</v>
       </c>
-      <c r="G22">
+      <c r="L22">
         <v>-54</v>
       </c>
-      <c r="H22">
+      <c r="M22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>295</v>
       </c>
@@ -3363,20 +3724,35 @@
       <c r="D23">
         <v>116.1401</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>625</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>79</v>
+      </c>
+      <c r="H23">
+        <v>3162</v>
+      </c>
+      <c r="I23">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="J23">
         <v>24.323</v>
       </c>
-      <c r="F23">
+      <c r="K23">
         <v>1.9E-2</v>
       </c>
-      <c r="G23">
+      <c r="L23">
         <v>-107</v>
       </c>
-      <c r="H23">
+      <c r="M23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3389,20 +3765,35 @@
       <c r="D24">
         <v>48.804600000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>371</v>
+      </c>
+      <c r="H24">
+        <v>1452</v>
+      </c>
+      <c r="I24">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="J24">
         <v>21.946000000000002</v>
       </c>
-      <c r="F24">
+      <c r="K24">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G24">
+      <c r="L24">
         <v>-94</v>
       </c>
-      <c r="H24">
+      <c r="M24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -3415,20 +3806,35 @@
       <c r="D25">
         <v>47.444099999999999</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>305</v>
+      </c>
+      <c r="H25">
+        <v>1629</v>
+      </c>
+      <c r="I25">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="J25">
         <v>22.097000000000001</v>
       </c>
-      <c r="F25">
+      <c r="K25">
         <v>0.91500000000000004</v>
       </c>
-      <c r="G25">
+      <c r="L25">
         <v>-90</v>
       </c>
-      <c r="H25">
+      <c r="M25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>309</v>
       </c>
@@ -3441,20 +3847,35 @@
       <c r="D26">
         <v>94.355900000000005</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>1414</v>
+      </c>
+      <c r="H26">
+        <v>1658</v>
+      </c>
+      <c r="I26">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="J26">
         <v>26.434000000000001</v>
       </c>
-      <c r="F26">
+      <c r="K26">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G26">
+      <c r="L26">
         <v>-77</v>
       </c>
-      <c r="H26">
+      <c r="M26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -3467,20 +3888,35 @@
       <c r="D27">
         <v>94.724299999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>751</v>
+      </c>
+      <c r="H27">
+        <v>1778</v>
+      </c>
+      <c r="I27">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="J27">
         <v>23.317</v>
       </c>
-      <c r="F27">
+      <c r="K27">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G27">
+      <c r="L27">
         <v>-82</v>
       </c>
-      <c r="H27">
+      <c r="M27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -3493,20 +3929,35 @@
       <c r="D28">
         <v>105.7338</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>628</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>295</v>
+      </c>
+      <c r="H28">
+        <v>1770</v>
+      </c>
+      <c r="I28">
+        <v>0.1666</v>
+      </c>
+      <c r="J28">
         <v>24.384</v>
       </c>
-      <c r="F28">
+      <c r="K28">
         <v>1.181</v>
       </c>
-      <c r="G28">
+      <c r="L28">
         <v>-112</v>
       </c>
-      <c r="H28">
+      <c r="M28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3519,20 +3970,35 @@
       <c r="D29">
         <v>-67.9482</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>631</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>49</v>
+      </c>
+      <c r="H29">
+        <v>2104</v>
+      </c>
+      <c r="I29">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="J29">
         <v>26.091999999999999</v>
       </c>
-      <c r="F29">
+      <c r="K29">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G29">
+      <c r="L29">
         <v>-93</v>
       </c>
-      <c r="H29">
+      <c r="M29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -3545,17 +4011,32 @@
       <c r="D30">
         <v>87.384699999999995</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>893</v>
+      </c>
+      <c r="H30">
+        <v>1342</v>
+      </c>
+      <c r="I30">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J30">
         <v>22.510999999999999</v>
       </c>
-      <c r="G30">
+      <c r="L30">
         <v>-28</v>
       </c>
-      <c r="H30">
+      <c r="M30">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -3568,20 +4049,35 @@
       <c r="D31">
         <v>87.384699999999995</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>893</v>
+      </c>
+      <c r="H31">
+        <v>1342</v>
+      </c>
+      <c r="I31">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J31">
         <v>13.295999999999999</v>
       </c>
-      <c r="F31">
+      <c r="K31">
         <v>0.34</v>
       </c>
-      <c r="G31">
+      <c r="L31">
         <v>-74</v>
       </c>
-      <c r="H31">
+      <c r="M31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -3594,20 +4090,35 @@
       <c r="D32">
         <v>87.083799999999997</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>385</v>
+      </c>
+      <c r="H32">
+        <v>1130</v>
+      </c>
+      <c r="I32">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="J32">
         <v>14.333</v>
       </c>
-      <c r="F32">
+      <c r="K32">
         <v>0.61</v>
       </c>
-      <c r="G32">
+      <c r="L32">
         <v>-82</v>
       </c>
-      <c r="H32">
+      <c r="M32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -3620,20 +4131,35 @@
       <c r="D33">
         <v>118.18040000000001</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>156</v>
+      </c>
+      <c r="H33">
+        <v>2136</v>
+      </c>
+      <c r="I33">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J33">
         <v>21.512</v>
       </c>
-      <c r="F33">
+      <c r="K33">
         <v>0.182</v>
       </c>
-      <c r="G33">
+      <c r="L33">
         <v>-107</v>
       </c>
-      <c r="H33">
+      <c r="M33">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -3646,20 +4172,35 @@
       <c r="D34">
         <v>118.23009999999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>627</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>204</v>
+      </c>
+      <c r="H34">
+        <v>1965</v>
+      </c>
+      <c r="I34">
+        <v>0.1038</v>
+      </c>
+      <c r="J34">
         <v>16.82</v>
       </c>
-      <c r="F34">
+      <c r="K34">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G34">
+      <c r="L34">
         <v>-101</v>
       </c>
-      <c r="H34">
+      <c r="M34">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3672,20 +4213,35 @@
       <c r="D35">
         <v>35.436300000000003</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>499</v>
+      </c>
+      <c r="H35">
+        <v>1911</v>
+      </c>
+      <c r="I35">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J35">
         <v>29.602</v>
       </c>
-      <c r="F35">
+      <c r="K35">
         <v>2.2269999999999999</v>
       </c>
-      <c r="G35">
+      <c r="L35">
         <v>-108</v>
       </c>
-      <c r="H35">
+      <c r="M35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -3698,20 +4254,35 @@
       <c r="D36">
         <v>35.436300000000003</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36">
+        <v>21</v>
+      </c>
+      <c r="G36">
+        <v>499</v>
+      </c>
+      <c r="H36">
+        <v>1911</v>
+      </c>
+      <c r="I36">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J36">
         <v>30.411999999999999</v>
       </c>
-      <c r="F36">
+      <c r="K36">
         <v>1.3380000000000001</v>
       </c>
-      <c r="G36">
+      <c r="L36">
         <v>-116</v>
       </c>
-      <c r="H36">
+      <c r="M36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -3724,17 +4295,32 @@
       <c r="D37">
         <v>35.247300000000003</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>558</v>
+      </c>
+      <c r="H37">
+        <v>1862</v>
+      </c>
+      <c r="I37">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="J37">
         <v>33.587000000000003</v>
       </c>
-      <c r="G37">
+      <c r="L37">
         <v>-18</v>
       </c>
-      <c r="H37">
+      <c r="M37">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -3747,20 +4333,35 @@
       <c r="D38">
         <v>35.247300000000003</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>558</v>
+      </c>
+      <c r="H38">
+        <v>1862</v>
+      </c>
+      <c r="I38">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="J38">
         <v>34.732999999999997</v>
       </c>
-      <c r="F38">
+      <c r="K38">
         <v>0.77700000000000002</v>
       </c>
-      <c r="G38">
+      <c r="L38">
         <v>-14</v>
       </c>
-      <c r="H38">
+      <c r="M38">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -3773,20 +4374,35 @@
       <c r="D39">
         <v>34.896599999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>805</v>
+      </c>
+      <c r="H39">
+        <v>1749</v>
+      </c>
+      <c r="I39">
+        <v>0.46</v>
+      </c>
+      <c r="J39">
         <v>28.048999999999999</v>
       </c>
-      <c r="F39">
+      <c r="K39">
         <v>1.1759999999999999</v>
       </c>
-      <c r="G39">
+      <c r="L39">
         <v>-71</v>
       </c>
-      <c r="H39">
+      <c r="M39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -3799,20 +4415,35 @@
       <c r="D40">
         <v>34.896599999999999</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>805</v>
+      </c>
+      <c r="H40">
+        <v>1749</v>
+      </c>
+      <c r="I40">
+        <v>0.46</v>
+      </c>
+      <c r="J40">
         <v>26.725000000000001</v>
       </c>
-      <c r="F40">
+      <c r="K40">
         <v>1.329</v>
       </c>
-      <c r="G40">
+      <c r="L40">
         <v>-69</v>
       </c>
-      <c r="H40">
+      <c r="M40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -3825,20 +4456,35 @@
       <c r="D41">
         <v>34.896599999999999</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>805</v>
+      </c>
+      <c r="H41">
+        <v>1749</v>
+      </c>
+      <c r="I41">
+        <v>0.46</v>
+      </c>
+      <c r="J41">
         <v>27.247</v>
       </c>
-      <c r="F41">
+      <c r="K41">
         <v>1.49</v>
       </c>
-      <c r="G41">
+      <c r="L41">
         <v>-69</v>
       </c>
-      <c r="H41">
+      <c r="M41">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -3851,17 +4497,32 @@
       <c r="D42">
         <v>34.896599999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>805</v>
+      </c>
+      <c r="H42">
+        <v>1749</v>
+      </c>
+      <c r="I42">
+        <v>0.46</v>
+      </c>
+      <c r="J42">
         <v>27.216999999999999</v>
       </c>
-      <c r="G42">
+      <c r="L42">
         <v>-74</v>
       </c>
-      <c r="H42">
+      <c r="M42">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -3874,20 +4535,35 @@
       <c r="D43">
         <v>34.896599999999999</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43">
+        <v>19</v>
+      </c>
+      <c r="G43">
+        <v>805</v>
+      </c>
+      <c r="H43">
+        <v>1749</v>
+      </c>
+      <c r="I43">
+        <v>0.46</v>
+      </c>
+      <c r="J43">
         <v>27.327000000000002</v>
       </c>
-      <c r="F43">
+      <c r="K43">
         <v>0.623</v>
       </c>
-      <c r="G43">
+      <c r="L43">
         <v>-69</v>
       </c>
-      <c r="H43">
+      <c r="M43">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -3900,16 +4576,31 @@
       <c r="D44">
         <v>34.847799999999999</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>819</v>
+      </c>
+      <c r="H44">
+        <v>1886</v>
+      </c>
+      <c r="I44">
+        <v>0.434</v>
+      </c>
+      <c r="J44">
         <v>27.757999999999999</v>
       </c>
-      <c r="F44">
+      <c r="K44">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G44">
+      <c r="L44">
         <v>-67</v>
       </c>
-      <c r="H44">
+      <c r="M44">
         <v>9</v>
       </c>
     </row>
@@ -3922,21 +4613,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="11" max="17" width="10.83203125" style="4"/>
     <col min="19" max="25" width="10.83203125" style="3"/>
     <col min="27" max="27" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4030,98 +4725,98 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>63</v>
+      <c r="A2" t="s">
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>631</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D2">
-        <v>28.255600000000001</v>
+        <v>-22.938600000000001</v>
       </c>
       <c r="E2">
-        <v>87.083799999999997</v>
+        <v>-67.9482</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>385</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>1130</v>
+        <v>2104</v>
       </c>
       <c r="I2">
-        <v>0.34060000000000001</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="J2">
-        <v>-14.4</v>
+        <v>-12.4</v>
       </c>
       <c r="K2" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" s="4">
-        <v>-6.78</v>
+        <v>-3.63</v>
       </c>
       <c r="M2" s="4">
-        <v>-17.39</v>
+        <v>-4.34</v>
       </c>
       <c r="N2" s="4">
-        <v>0.75800000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="O2" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P2" s="4">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1">
-        <v>7.4850000000000003</v>
+        <v>13.683999999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.32600000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="U2" s="1">
-        <v>14.333</v>
+        <v>26.091999999999999</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V48" si="0">(EXP(U2/1000)-1)*1000</f>
-        <v>14.436209957742419</v>
+        <f>(EXP(U2/1000)-1)*1000</f>
+        <v>26.435376184309689</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:W48" si="1">(V2-30.91)/1.03091</f>
-        <v>-15.979852792443165</v>
+        <f>(V2-30.91)/1.03091</f>
+        <v>-4.3404601911809095</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" ref="X2:X48" si="2">1000*LN(W2/1000+1)</f>
-        <v>-16.108907335061918</v>
+        <f>1000*LN(W2/1000+1)</f>
+        <v>-4.3499073350619391</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.61</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Z2">
-        <v>-82</v>
+        <v>-93</v>
       </c>
       <c r="AA2">
+        <v>8</v>
+      </c>
+      <c r="AB2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
         <v>9</v>
       </c>
-      <c r="AB2">
-        <v>17</v>
-      </c>
-      <c r="AC2">
-        <v>10</v>
-      </c>
       <c r="AD2">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -4131,184 +4826,199 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>13</v>
+      <c r="A3" t="s">
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>42.015300000000003</v>
+        <v>35.191400000000002</v>
       </c>
       <c r="E3">
-        <v>111.57429999999999</v>
+        <v>116.1401</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="H3">
-        <v>1444</v>
+        <v>3162</v>
       </c>
       <c r="I3">
-        <v>0.15709999999999999</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="J3">
-        <v>-8.6</v>
+        <v>-7.6</v>
       </c>
       <c r="K3" s="4">
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>-3</v>
+        <v>-2.35</v>
       </c>
       <c r="M3" s="4">
-        <v>-7.6</v>
+        <v>-1.8</v>
       </c>
       <c r="N3" s="4">
-        <v>0.65300000000000002</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="O3" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="P3" s="4">
-        <v>23.4</v>
+        <v>15.3</v>
       </c>
       <c r="Q3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>11.941000000000001</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.96199999999999997</v>
+        <v>14.968</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="U3" s="1">
-        <v>22.812999999999999</v>
+        <v>28.64</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" si="0"/>
-        <v>23.075206594510789</v>
+        <f>(EXP(U3/1000)-1)*1000</f>
+        <v>29.054068319829483</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="1"/>
-        <v>-7.5998810812672408</v>
+        <f>(V3-30.91)/1.03091</f>
+        <v>-1.8002848746937339</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="2"/>
-        <v>-7.628907335061764</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1.8240000000000001</v>
+        <f>1000*LN(W3/1000+1)</f>
+        <v>-1.8019073350617623</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="Z3">
-        <v>-104</v>
+        <v>-154</v>
       </c>
       <c r="AA3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB3">
-        <v>-19</v>
+        <v>-67</v>
       </c>
       <c r="AC3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD3">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>61</v>
+      <c r="A4" t="s">
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>625</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>28.285</v>
+        <v>35.191400000000002</v>
       </c>
       <c r="E4">
-        <v>87.384699999999995</v>
+        <v>116.1401</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>893</v>
+        <v>79</v>
       </c>
       <c r="H4">
-        <v>1342</v>
+        <v>3162</v>
       </c>
       <c r="I4">
-        <v>0.66500000000000004</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="J4">
-        <v>-12.2</v>
+        <v>-7.6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
       </c>
       <c r="L4" s="4">
-        <v>0.55000000000000004</v>
+        <v>-3.94</v>
       </c>
       <c r="M4" s="4">
-        <v>-7.9</v>
+        <v>-6.1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O4" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="1">
-        <v>11.757</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>111</v>
+        <v>12.734999999999999</v>
+      </c>
+      <c r="T4" s="1">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="U4" s="1">
-        <v>22.510999999999999</v>
+        <v>24.323</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" si="0"/>
-        <v>22.766284531698709</v>
+        <f>(EXP(U4/1000)-1)*1000</f>
+        <v>24.621217100645687</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="1"/>
-        <v>-7.8995406663057794</v>
+        <f>(V4-30.91)/1.03091</f>
+        <v>-6.1002249462652545</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="2"/>
-        <v>-7.9309073350617973</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>111</v>
+        <f>1000*LN(W4/1000+1)</f>
+        <v>-6.1189073350619108</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.9E-2</v>
       </c>
       <c r="Z4">
-        <v>-128</v>
+        <v>-107</v>
       </c>
       <c r="AA4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB4">
-        <v>-29</v>
+        <v>-17</v>
       </c>
       <c r="AC4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD4">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -4318,83 +5028,98 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>62</v>
+      <c r="A5" t="s">
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>627</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>28.285</v>
+        <v>39.4373</v>
       </c>
       <c r="E5">
-        <v>87.384699999999995</v>
+        <v>119.0663</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>893</v>
+        <v>131</v>
       </c>
       <c r="H5">
-        <v>1342</v>
+        <v>1998</v>
       </c>
       <c r="I5">
-        <v>0.66500000000000004</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="J5">
-        <v>-12.2</v>
+        <v>-13.8</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
       </c>
       <c r="L5" s="4">
-        <v>1.5</v>
+        <v>-3.19</v>
       </c>
       <c r="M5" s="4">
-        <v>-17</v>
+        <v>-8.76</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O5" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2.5</v>
       </c>
       <c r="R5">
         <v>2</v>
       </c>
       <c r="S5" s="1">
-        <v>6.9459999999999997</v>
+        <v>11.321</v>
       </c>
       <c r="T5" s="1">
-        <v>0.184</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="U5" s="1">
-        <v>13.295999999999999</v>
+        <v>21.643000000000001</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="0"/>
-        <v>13.384784866148802</v>
+        <f>(EXP(U5/1000)-1)*1000</f>
+        <v>21.878908573605081</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="1"/>
-        <v>-16.999752775558679</v>
+        <f>(V5-30.91)/1.03091</f>
+        <v>-8.760310236970172</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="2"/>
-        <v>-17.145907335061793</v>
+        <f>1000*LN(W5/1000+1)</f>
+        <v>-8.7989073350619105</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.34</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Z5">
-        <v>-74</v>
+        <v>-106</v>
       </c>
       <c r="AA5">
         <v>9</v>
       </c>
       <c r="AB5">
-        <v>25</v>
+        <v>-12</v>
       </c>
       <c r="AC5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD5">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -4404,83 +5129,83 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>66</v>
+      <c r="A6" t="s">
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>627</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>37.855400000000003</v>
+        <v>37.8812</v>
       </c>
       <c r="E6">
-        <v>118.23009999999999</v>
+        <v>118.18040000000001</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="H6">
-        <v>1965</v>
+        <v>2136</v>
       </c>
       <c r="I6">
-        <v>0.1038</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="J6">
-        <v>-14.3</v>
+        <v>-13.5</v>
       </c>
       <c r="L6" s="4">
-        <v>-2.71</v>
+        <v>-2.72</v>
       </c>
       <c r="M6" s="4">
-        <v>-13.53</v>
+        <v>-8.89</v>
       </c>
       <c r="R6">
         <v>2</v>
       </c>
       <c r="S6" s="1">
-        <v>8.7799999999999994</v>
+        <v>11.252000000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>8.1000000000000003E-2</v>
+        <v>0.105</v>
       </c>
       <c r="U6" s="1">
-        <v>16.82</v>
+        <v>21.512</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="0"/>
-        <v>16.962252643987874</v>
+        <f>(EXP(U6/1000)-1)*1000</f>
+        <v>21.745051204431043</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="1"/>
-        <v>-13.529548996529403</v>
+        <f>(V6-30.91)/1.03091</f>
+        <v>-8.8901541313683605</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="2"/>
-        <v>-13.621907335061712</v>
+        <f>1000*LN(W6/1000+1)</f>
+        <v>-8.9299073350619089</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="Z6">
-        <v>-101</v>
+        <v>-107</v>
       </c>
       <c r="AA6">
         <v>9</v>
       </c>
       <c r="AB6">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="AC6">
         <v>10</v>
       </c>
       <c r="AD6">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -4490,184 +5215,184 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>41</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D7">
-        <v>39.6631</v>
+        <v>34.421199999999999</v>
       </c>
       <c r="E7">
-        <v>120.3155</v>
+        <v>116.789</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>565</v>
+        <v>238</v>
       </c>
       <c r="H7">
-        <v>1662</v>
+        <v>2604</v>
       </c>
       <c r="I7">
-        <v>0.33979999999999999</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="J7">
-        <v>-14</v>
+        <v>-7.5</v>
       </c>
       <c r="K7" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4">
-        <v>-8.41</v>
+        <v>-3.4</v>
       </c>
       <c r="M7" s="4">
-        <v>-12.14</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="N7" s="4">
-        <v>0.72799999999999998</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="O7" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P7" s="4">
-        <v>10.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q7" s="4">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7" s="1">
-        <v>9.5549999999999997</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.29099999999999998</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="U7" s="1">
-        <v>18.228000000000002</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="0"/>
-        <v>18.395144014514031</v>
+        <f>(EXP(U7/1000)-1)*1000</f>
+        <v>20.395196697161388</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="1"/>
-        <v>-12.13962032135295</v>
+        <f>(V7-30.91)/1.03091</f>
+        <v>-10.199535655720297</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="2"/>
-        <v>-12.213907335061903</v>
+        <f>1000*LN(W7/1000+1)</f>
+        <v>-10.251907335061825</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="Z7">
-        <v>-69</v>
+        <v>-75</v>
       </c>
       <c r="AA7">
         <v>9</v>
       </c>
       <c r="AB7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD7">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>57</v>
+      <c r="A8" t="s">
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
+        <v>627</v>
+      </c>
+      <c r="C8">
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>36.356699999999996</v>
+        <v>37.855400000000003</v>
       </c>
       <c r="E8">
-        <v>105.7338</v>
+        <v>118.23009999999999</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>204</v>
+      </c>
+      <c r="H8">
+        <v>1965</v>
+      </c>
+      <c r="I8">
+        <v>0.1038</v>
+      </c>
+      <c r="J8">
+        <v>-14.3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-2.71</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-13.53</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="T8" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="V8" s="1">
+        <f>(EXP(U8/1000)-1)*1000</f>
+        <v>16.962252643987874</v>
+      </c>
+      <c r="W8" s="2">
+        <f>(V8-30.91)/1.03091</f>
+        <v>-13.529548996529403</v>
+      </c>
+      <c r="X8" s="2">
+        <f>1000*LN(W8/1000+1)</f>
+        <v>-13.621907335061712</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>-101</v>
+      </c>
+      <c r="AA8">
         <v>9</v>
       </c>
-      <c r="G8">
-        <v>295</v>
-      </c>
-      <c r="H8">
-        <v>1770</v>
-      </c>
-      <c r="I8">
-        <v>0.1666</v>
-      </c>
-      <c r="J8">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-3.17</v>
-      </c>
-      <c r="M8" s="4">
-        <v>-6.04</v>
-      </c>
-      <c r="R8">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1">
-        <v>12.762</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="U8" s="1">
-        <v>24.384</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="0"/>
-        <v>24.683720901235382</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="1"/>
-        <v>-6.0395952107988258</v>
-      </c>
-      <c r="X8" s="2">
-        <f t="shared" si="2"/>
-        <v>-6.0579073350618202</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1.181</v>
-      </c>
-      <c r="Z8">
-        <v>-112</v>
-      </c>
-      <c r="AA8">
-        <v>6</v>
-      </c>
       <c r="AB8">
-        <v>-24</v>
+        <v>-10</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD8">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -4677,98 +5402,98 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>59</v>
+      <c r="A9" t="s">
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>630</v>
       </c>
       <c r="C9">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>-22.938600000000001</v>
+        <v>-32.591900000000003</v>
       </c>
       <c r="E9">
-        <v>-67.9482</v>
+        <v>68.905299999999997</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="H9">
-        <v>2104</v>
+        <v>1861</v>
       </c>
       <c r="I9">
-        <v>2.3199999999999998E-2</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="J9">
-        <v>-12.4</v>
+        <v>-6.2</v>
       </c>
       <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-1.88</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-3.8</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>13.967000000000001</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="U9" s="1">
+        <v>26.635000000000002</v>
+      </c>
+      <c r="V9" s="1">
+        <f>(EXP(U9/1000)-1)*1000</f>
+        <v>26.992881942693003</v>
+      </c>
+      <c r="W9" s="2">
+        <f>(V9-30.91)/1.03091</f>
+        <v>-3.7996702498831101</v>
+      </c>
+      <c r="X9" s="2">
+        <f>1000*LN(W9/1000+1)</f>
+        <v>-3.8069073350617719</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>-96</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>-22</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
         <v>2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-3.63</v>
-      </c>
-      <c r="M9" s="4">
-        <v>-4.34</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9" s="1">
-        <v>13.683999999999999</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.496</v>
-      </c>
-      <c r="U9" s="1">
-        <v>26.091999999999999</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="0"/>
-        <v>26.435376184309689</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="1"/>
-        <v>-4.3404601911809095</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.3499073350619391</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="Z9">
-        <v>-93</v>
-      </c>
-      <c r="AA9">
-        <v>8</v>
-      </c>
-      <c r="AB9">
-        <v>7</v>
-      </c>
-      <c r="AC9">
-        <v>9</v>
-      </c>
-      <c r="AD9">
-        <v>-7</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -4778,169 +5503,199 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>50</v>
+      <c r="A10" t="s">
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>630</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>36.912399999999998</v>
+        <v>-32.591900000000003</v>
       </c>
       <c r="E10">
-        <v>47.444099999999999</v>
+        <v>68.905299999999997</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="H10">
-        <v>1629</v>
+        <v>1861</v>
       </c>
       <c r="I10">
-        <v>0.18709999999999999</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="J10">
-        <v>-9.5</v>
+        <v>-6.2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
       </c>
       <c r="L10" s="4">
-        <v>-6.95</v>
+        <v>-2.66</v>
       </c>
       <c r="M10" s="4">
-        <v>-8.31</v>
+        <v>-3.3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="O10" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>13.7</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10" s="1">
-        <v>11.577999999999999</v>
+        <v>14.233000000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.48499999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="U10" s="1">
-        <v>22.097000000000001</v>
+        <v>27.135999999999999</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="0"/>
-        <v>22.34294692683325</v>
+        <f>(EXP(U10/1000)-1)*1000</f>
+        <v>27.507534286193458</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.3101852471765234</v>
+        <f>(V10-30.91)/1.03091</f>
+        <v>-3.3004488401572805</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.3449073350618246</v>
+        <f>1000*LN(W10/1000+1)</f>
+        <v>-3.305907335061713</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.91500000000000004</v>
+        <v>1.1220000000000001</v>
       </c>
       <c r="Z10">
-        <v>-90</v>
+        <v>-95</v>
       </c>
       <c r="AA10">
         <v>7</v>
       </c>
       <c r="AB10">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="AC10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>64</v>
+      <c r="A11" t="s">
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>630</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>37.8812</v>
+        <v>-34.049999999999997</v>
       </c>
       <c r="E11">
-        <v>118.18040000000001</v>
+        <v>67.902799999999999</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="H11">
-        <v>2136</v>
+        <v>1787</v>
       </c>
       <c r="I11">
-        <v>7.2999999999999995E-2</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="J11">
-        <v>-13.5</v>
+        <v>-5.9</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
       </c>
       <c r="L11" s="4">
-        <v>-2.72</v>
+        <v>-5.83</v>
       </c>
       <c r="M11" s="4">
-        <v>-8.89</v>
+        <v>-8.61</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" s="1">
-        <v>11.252000000000001</v>
+        <v>11.474</v>
       </c>
       <c r="T11" s="1">
-        <v>0.105</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U11" s="1">
-        <v>21.512</v>
+        <v>21.895</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="0"/>
-        <v>21.745051204431043</v>
+        <f>(EXP(U11/1000)-1)*1000</f>
+        <v>22.136454507990511</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.8901541313683605</v>
+        <f>(V11-30.91)/1.03091</f>
+        <v>-8.5104863586632096</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.9299073350619089</v>
+        <f>1000*LN(W11/1000+1)</f>
+        <v>-8.5469073350618263</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.182</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="Z11">
-        <v>-107</v>
+        <v>-87</v>
       </c>
       <c r="AA11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB11">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="AC11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD11">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -4950,98 +5705,98 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>40</v>
+      <c r="A12" t="s">
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>39.4373</v>
+        <v>-34.049999999999997</v>
       </c>
       <c r="E12">
-        <v>119.0663</v>
+        <v>67.902799999999999</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="H12">
-        <v>1998</v>
+        <v>1787</v>
       </c>
       <c r="I12">
-        <v>6.5500000000000003E-2</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="J12">
-        <v>-13.8</v>
+        <v>-5.9</v>
       </c>
       <c r="K12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4">
-        <v>-3.19</v>
+        <v>-5.51</v>
       </c>
       <c r="M12" s="4">
-        <v>-8.76</v>
+        <v>-8.51</v>
       </c>
       <c r="N12" s="4">
-        <v>0.72399999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="O12" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P12" s="4">
-        <v>11.7</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="4">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12" s="1">
-        <v>11.321</v>
+        <v>11.433</v>
       </c>
       <c r="T12" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="U12" s="1">
-        <v>21.643000000000001</v>
+        <v>21.795000000000002</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="0"/>
-        <v>21.878908573605081</v>
+        <f>(EXP(U12/1000)-1)*1000</f>
+        <v>22.03424597305159</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.760310236970172</v>
+        <f>(V12-30.91)/1.03091</f>
+        <v>-8.6096303527450608</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.7989073350619105</v>
+        <f>1000*LN(W12/1000+1)</f>
+        <v>-8.6469073350618597</v>
       </c>
       <c r="Y12" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="Z12">
-        <v>-106</v>
+        <v>-75</v>
       </c>
       <c r="AA12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB12">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="AC12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD12">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -5051,80 +5806,95 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>47</v>
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>624</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>36.908799999999999</v>
+        <v>42.015300000000003</v>
       </c>
       <c r="E13">
-        <v>48.804600000000001</v>
+        <v>111.57429999999999</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="H13">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="I13">
-        <v>0.25540000000000002</v>
+        <v>0.15709999999999999</v>
       </c>
       <c r="J13">
-        <v>-5.9</v>
+        <v>-8.6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>-7.21</v>
+        <v>-3</v>
       </c>
       <c r="M13" s="4">
-        <v>-8.4600000000000009</v>
+        <v>-7.6</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13" s="1">
-        <v>11.493</v>
+        <v>11.941000000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.498</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="U13" s="1">
-        <v>21.946000000000002</v>
+        <v>22.812999999999999</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="0"/>
-        <v>22.188584796481337</v>
+        <f>(EXP(U13/1000)-1)*1000</f>
+        <v>23.075206594510789</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.4599191040136024</v>
+        <f>(V13-30.91)/1.03091</f>
+        <v>-7.5998810812672408</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.4959073350618777</v>
+        <f>1000*LN(W13/1000+1)</f>
+        <v>-7.628907335061764</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.94199999999999995</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="Z13">
-        <v>-94</v>
+        <v>-104</v>
       </c>
       <c r="AA13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB13">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="AC13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD13">
         <v>-6</v>
@@ -5133,506 +5903,476 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>36</v>
+      <c r="A14" t="s">
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
+        <v>628</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>37.739699999999999</v>
+        <v>36.356699999999996</v>
       </c>
       <c r="E14">
-        <v>121.837</v>
+        <v>105.7338</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>442</v>
+        <v>295</v>
       </c>
       <c r="H14">
-        <v>1726</v>
+        <v>1770</v>
       </c>
       <c r="I14">
-        <v>0.25600000000000001</v>
+        <v>0.1666</v>
       </c>
       <c r="J14">
-        <v>-7.9</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="L14" s="4">
-        <v>-8.91</v>
+        <v>-3.17</v>
       </c>
       <c r="M14" s="4">
-        <v>-4.84</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="O14" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P14" s="4">
-        <v>11.7</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>2.2000000000000002</v>
+        <v>-6.04</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" s="1">
-        <v>13.445</v>
+        <v>12.762</v>
       </c>
       <c r="T14" s="1">
-        <v>0.48699999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="U14" s="1">
-        <v>25.59</v>
+        <v>24.384</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="0"/>
-        <v>25.920234936736453</v>
+        <f>(EXP(U14/1000)-1)*1000</f>
+        <v>24.683720901235382</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="1"/>
-        <v>-4.8401558460617782</v>
+        <f>(V14-30.91)/1.03091</f>
+        <v>-6.0395952107988258</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.8519073350619006</v>
+        <f>1000*LN(W14/1000+1)</f>
+        <v>-6.0579073350618202</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.91800000000000004</v>
+        <v>1.181</v>
       </c>
       <c r="Z14">
-        <v>-67</v>
+        <v>-112</v>
       </c>
       <c r="AA14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB14">
-        <v>26</v>
+        <v>-24</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD14">
         <v>-5</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>38</v>
+      <c r="A15" t="s">
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>629</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>37.739699999999999</v>
+        <v>11.1653</v>
       </c>
       <c r="E15">
-        <v>121.837</v>
+        <v>40.494999999999997</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="H15">
-        <v>1726</v>
+        <v>2318</v>
       </c>
       <c r="I15">
-        <v>0.25600000000000001</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="J15">
-        <v>-7.9</v>
+        <v>-1.3</v>
       </c>
       <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="L15" s="4">
-        <v>-9.91</v>
-      </c>
-      <c r="M15" s="4">
-        <v>-4.83</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="P15" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="R15">
-        <v>4</v>
-      </c>
       <c r="S15" s="1">
-        <v>13.443</v>
+        <v>14.756</v>
       </c>
       <c r="T15" s="1">
-        <v>0.76800000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="U15" s="1">
-        <v>25.6</v>
+        <v>28.138999999999999</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="0"/>
-        <v>25.930494190382181</v>
+        <f>(EXP(U15/1000)-1)*1000</f>
+        <v>28.538641356836479</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="1"/>
-        <v>-4.8302041978619084</v>
+        <f>(V15-30.91)/1.03091</f>
+        <v>-2.3002576783264508</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.8419073350617623</v>
+        <f>1000*LN(W15/1000+1)</f>
+        <v>-2.3029073350617755</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.4450000000000001</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="Z15">
-        <v>-73</v>
+        <v>-101</v>
       </c>
       <c r="AA15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB15">
-        <v>17</v>
+        <v>-24</v>
       </c>
       <c r="AC15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD15">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="AE15">
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>28</v>
+      <c r="A16" t="s">
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>629</v>
       </c>
       <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>11.1653</v>
+      </c>
+      <c r="E16">
+        <v>40.494999999999997</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>403</v>
+      </c>
+      <c r="H16">
+        <v>2318</v>
+      </c>
+      <c r="I16">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="J16">
+        <v>-1.3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-2.9</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>14.925000000000001</v>
+      </c>
+      <c r="T16" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>28.44</v>
+      </c>
+      <c r="V16" s="1">
+        <f>(EXP(U16/1000)-1)*1000</f>
+        <v>28.848278085874757</v>
+      </c>
+      <c r="W16" s="2">
+        <f>(V16-30.91)/1.03091</f>
+        <v>-1.9999048550554785</v>
+      </c>
+      <c r="X16" s="2">
+        <f>1000*LN(W16/1000+1)</f>
+        <v>-2.0019073350619134</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Z16">
+        <v>-92</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AB16">
+        <v>-16</v>
+      </c>
+      <c r="AC16">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>-32.591900000000003</v>
-      </c>
-      <c r="E16">
-        <v>68.905299999999997</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>245</v>
-      </c>
-      <c r="H16">
-        <v>1861</v>
-      </c>
-      <c r="I16">
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="J16">
-        <v>-6.2</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="AD16">
         <v>3</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-1.88</v>
-      </c>
-      <c r="M16" s="4">
-        <v>-3.8</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="P16" s="4">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R16">
-        <v>4</v>
-      </c>
-      <c r="S16" s="1">
-        <v>13.967000000000001</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="U16" s="1">
-        <v>26.635000000000002</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="0"/>
-        <v>26.992881942693003</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.7996702498831101</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.8069073350617719</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="Z16">
-        <v>-96</v>
-      </c>
-      <c r="AA16">
-        <v>7</v>
-      </c>
-      <c r="AB16">
-        <v>-22</v>
-      </c>
-      <c r="AC16">
-        <v>7</v>
-      </c>
-      <c r="AD16">
-        <v>2</v>
       </c>
       <c r="AE16">
         <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>30</v>
+      <c r="A17" t="s">
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>629</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>-32.591900000000003</v>
+        <v>11.1653</v>
       </c>
       <c r="E17">
-        <v>68.905299999999997</v>
+        <v>40.494999999999997</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G17">
-        <v>245</v>
+        <v>403</v>
       </c>
       <c r="H17">
-        <v>1861</v>
+        <v>2318</v>
       </c>
       <c r="I17">
-        <v>0.13159999999999999</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="J17">
-        <v>-6.2</v>
+        <v>-1.3</v>
       </c>
       <c r="K17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="4">
-        <v>-2.66</v>
+        <v>-1.5</v>
       </c>
       <c r="M17" s="4">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="N17" s="4">
-        <v>0.68700000000000006</v>
+        <v>0.629</v>
       </c>
       <c r="O17" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P17" s="4">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="Q17" s="4">
-        <v>13.7</v>
+        <v>2.4</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>14.144</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="U17" s="1">
+        <v>26.936</v>
+      </c>
+      <c r="V17" s="1">
+        <f>(EXP(U17/1000)-1)*1000</f>
+        <v>27.302053328116969</v>
+      </c>
+      <c r="W17" s="2">
+        <f>(V17-30.91)/1.03091</f>
+        <v>-3.4997688177270869</v>
+      </c>
+      <c r="X17" s="2">
+        <f>1000*LN(W17/1000+1)</f>
+        <v>-3.5059073350617354</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>-78</v>
+      </c>
+      <c r="AA17">
+        <v>9</v>
+      </c>
+      <c r="AB17">
         <v>4</v>
       </c>
-      <c r="S17" s="1">
-        <v>14.233000000000001</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="U17" s="1">
-        <v>27.135999999999999</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="0"/>
-        <v>27.507534286193458</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.3004488401572805</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.305907335061713</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="Z17">
-        <v>-95</v>
-      </c>
-      <c r="AA17">
-        <v>7</v>
-      </c>
-      <c r="AB17">
-        <v>-13</v>
-      </c>
       <c r="AC17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>32</v>
+      <c r="A18" t="s">
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>-34.049999999999997</v>
+        <v>36.912399999999998</v>
       </c>
       <c r="E18">
-        <v>67.902799999999999</v>
+        <v>47.444099999999999</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="H18">
-        <v>1787</v>
+        <v>1629</v>
       </c>
       <c r="I18">
-        <v>0.15160000000000001</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="J18">
-        <v>-5.9</v>
-      </c>
-      <c r="K18" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-6.95</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-8.31</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="L18" s="4">
-        <v>-5.83</v>
-      </c>
-      <c r="M18" s="4">
-        <v>-8.61</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
       <c r="S18" s="1">
-        <v>11.474</v>
+        <v>11.577999999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="U18" s="1">
-        <v>21.895</v>
+        <v>22.097000000000001</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="0"/>
-        <v>22.136454507990511</v>
+        <f>(EXP(U18/1000)-1)*1000</f>
+        <v>22.34294692683325</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.5104863586632096</v>
+        <f>(V18-30.91)/1.03091</f>
+        <v>-8.3101852471765234</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.5469073350618263</v>
+        <f>1000*LN(W18/1000+1)</f>
+        <v>-8.3449073350618246</v>
       </c>
       <c r="Y18" s="1">
-        <v>1.0649999999999999</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="Z18">
-        <v>-87</v>
+        <v>-90</v>
       </c>
       <c r="AA18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB18">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AC18">
         <v>8</v>
       </c>
       <c r="AD18">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -5642,805 +6382,790 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>34</v>
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>629</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>-34.049999999999997</v>
+        <v>11.148099999999999</v>
       </c>
       <c r="E19">
-        <v>67.902799999999999</v>
+        <v>40.335700000000003</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G19">
-        <v>271</v>
+        <v>461</v>
       </c>
       <c r="H19">
-        <v>1787</v>
+        <v>2284</v>
       </c>
       <c r="I19">
-        <v>0.15160000000000001</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="J19">
-        <v>-5.9</v>
+        <v>-1.3</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
       </c>
       <c r="L19" s="4">
-        <v>-5.51</v>
+        <v>-2.5</v>
       </c>
       <c r="M19" s="4">
-        <v>-8.51</v>
+        <v>-5.5</v>
       </c>
       <c r="N19" s="4">
-        <v>0.69</v>
+        <v>0.628</v>
       </c>
       <c r="O19" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P19" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="4">
-        <v>4.0999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>13.077999999999999</v>
+      </c>
+      <c r="T19" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>24.927</v>
+      </c>
+      <c r="V19" s="1">
+        <f>(EXP(U19/1000)-1)*1000</f>
+        <v>25.240275252516263</v>
+      </c>
+      <c r="W19" s="2">
+        <f>(V19-30.91)/1.03091</f>
+        <v>-5.4997281503562263</v>
+      </c>
+      <c r="X19" s="2">
+        <f>1000*LN(W19/1000+1)</f>
+        <v>-5.5149073350618165</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Z19">
+        <v>-83</v>
+      </c>
+      <c r="AA19">
+        <v>9</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19">
+        <v>-2</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>36.908799999999999</v>
+      </c>
+      <c r="E20">
+        <v>48.804600000000001</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>371</v>
+      </c>
+      <c r="H20">
+        <v>1452</v>
+      </c>
+      <c r="I20">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="J20">
+        <v>-5.9</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-7.21</v>
+      </c>
+      <c r="M20" s="4">
+        <v>-8.4600000000000009</v>
+      </c>
+      <c r="R20">
         <v>4</v>
       </c>
-      <c r="S19" s="1">
-        <v>11.433</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="U19" s="1">
-        <v>21.795000000000002</v>
-      </c>
-      <c r="V19" s="1">
-        <f t="shared" si="0"/>
-        <v>22.03424597305159</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.6096303527450608</v>
-      </c>
-      <c r="X19" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.6469073350618597</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="Z19">
-        <v>-75</v>
-      </c>
-      <c r="AA19">
+      <c r="S20" s="1">
+        <v>11.493</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="U20" s="1">
+        <v>21.946000000000002</v>
+      </c>
+      <c r="V20" s="1">
+        <f>(EXP(U20/1000)-1)*1000</f>
+        <v>22.188584796481337</v>
+      </c>
+      <c r="W20" s="2">
+        <f>(V20-30.91)/1.03091</f>
+        <v>-8.4599191040136024</v>
+      </c>
+      <c r="X20" s="2">
+        <f>1000*LN(W20/1000+1)</f>
+        <v>-8.4959073350618777</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="Z20">
+        <v>-94</v>
+      </c>
+      <c r="AA20">
         <v>7</v>
       </c>
-      <c r="AB19">
-        <v>8</v>
-      </c>
-      <c r="AC19">
+      <c r="AB20">
+        <v>-11</v>
+      </c>
+      <c r="AC20">
         <v>7</v>
       </c>
-      <c r="AD19">
+      <c r="AD20">
         <v>-6</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>140</v>
-      </c>
-      <c r="D20">
-        <v>34.421199999999999</v>
-      </c>
-      <c r="E20">
-        <v>116.789</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>238</v>
-      </c>
-      <c r="H20">
-        <v>2604</v>
-      </c>
-      <c r="I20">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="J20">
-        <v>-7.5</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-3.4</v>
-      </c>
-      <c r="M20" s="4">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="O20" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P20" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20" s="1">
-        <v>10.585000000000001</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="U20" s="1">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" si="0"/>
-        <v>20.395196697161388</v>
-      </c>
-      <c r="W20" s="2">
-        <f t="shared" si="1"/>
-        <v>-10.199535655720297</v>
-      </c>
-      <c r="X20" s="2">
-        <f t="shared" si="2"/>
-        <v>-10.251907335061825</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="Z20">
-        <v>-75</v>
-      </c>
-      <c r="AA20">
-        <v>9</v>
-      </c>
-      <c r="AB20">
-        <v>9</v>
-      </c>
-      <c r="AC20">
-        <v>9</v>
-      </c>
-      <c r="AD20">
-        <v>-8</v>
       </c>
       <c r="AE20">
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>24</v>
+      <c r="A21" t="s">
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>625</v>
       </c>
       <c r="C21">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>31.945799999999998</v>
+        <v>37.739699999999999</v>
       </c>
       <c r="E21">
-        <v>96.056299999999993</v>
+        <v>121.837</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>1015</v>
+        <v>442</v>
       </c>
       <c r="H21">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="I21">
-        <v>0.60060000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="J21">
-        <v>-3.9</v>
+        <v>-7.9</v>
       </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" s="4">
-        <v>-3.9</v>
+        <v>-8.91</v>
       </c>
       <c r="M21" s="4">
-        <v>-3.8</v>
+        <v>-4.84</v>
       </c>
       <c r="N21" s="4">
-        <v>0.67400000000000004</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="O21" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P21" s="4">
-        <v>31.1</v>
+        <v>11.7</v>
       </c>
       <c r="Q21" s="4">
-        <v>4.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1">
+        <v>13.445</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="U21" s="1">
+        <v>25.59</v>
+      </c>
+      <c r="V21" s="1">
+        <f>(EXP(U21/1000)-1)*1000</f>
+        <v>25.920234936736453</v>
+      </c>
+      <c r="W21" s="2">
+        <f>(V21-30.91)/1.03091</f>
+        <v>-4.8401558460617782</v>
+      </c>
+      <c r="X21" s="2">
+        <f>1000*LN(W21/1000+1)</f>
+        <v>-4.8519073350619006</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="Z21">
+        <v>-67</v>
+      </c>
+      <c r="AA21">
+        <v>8</v>
+      </c>
+      <c r="AB21">
+        <v>26</v>
+      </c>
+      <c r="AC21">
+        <v>8</v>
+      </c>
+      <c r="AD21">
+        <v>-5</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>37.739699999999999</v>
+      </c>
+      <c r="E22">
+        <v>121.837</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>442</v>
+      </c>
+      <c r="H22">
+        <v>1726</v>
+      </c>
+      <c r="I22">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J22">
+        <v>-7.9</v>
+      </c>
+      <c r="K22" s="4">
         <v>2</v>
       </c>
-      <c r="S21" s="1">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="U21" s="1">
-        <v>26.635000000000002</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="0"/>
-        <v>26.992881942693003</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.7996702498831101</v>
-      </c>
-      <c r="X21" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.8069073350617719</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0.442</v>
-      </c>
-      <c r="Z21">
-        <v>-77</v>
-      </c>
-      <c r="AA21">
-        <v>13</v>
-      </c>
-      <c r="AB21">
-        <v>3</v>
-      </c>
-      <c r="AC21">
-        <v>13</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22">
-        <v>60</v>
-      </c>
-      <c r="D22">
-        <v>-2.6168999999999998</v>
-      </c>
-      <c r="E22">
-        <v>34.896599999999999</v>
-      </c>
-      <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>805</v>
-      </c>
-      <c r="H22">
-        <v>1749</v>
-      </c>
-      <c r="I22">
-        <v>0.46</v>
-      </c>
-      <c r="J22">
-        <v>-0.7</v>
-      </c>
-      <c r="K22" s="4">
-        <v>3</v>
-      </c>
       <c r="L22" s="4">
-        <v>0.91</v>
+        <v>-9.91</v>
       </c>
       <c r="M22" s="4">
-        <v>-2.39</v>
+        <v>-4.83</v>
       </c>
       <c r="N22" s="4">
-        <v>0.69399999999999995</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="O22" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="P22" s="4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="4">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1">
-        <v>14.739000000000001</v>
+        <v>13.443</v>
       </c>
       <c r="T22" s="1">
-        <v>0.623</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="U22" s="1">
-        <v>28.048999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="0"/>
-        <v>28.446077044570917</v>
+        <f>(EXP(U22/1000)-1)*1000</f>
+        <v>25.930494190382181</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.3900466145726433</v>
+        <f>(V22-30.91)/1.03091</f>
+        <v>-4.8302041978619084</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.3929073350617904</v>
+        <f>1000*LN(W22/1000+1)</f>
+        <v>-4.8419073350617623</v>
       </c>
       <c r="Y22" s="1">
-        <v>1.1759999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="Z22">
-        <v>-71</v>
+        <v>-73</v>
       </c>
       <c r="AA22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD22">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AE22">
         <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>598</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>77</v>
+      <c r="A23" t="s">
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C23">
         <v>80</v>
       </c>
       <c r="D23">
-        <v>-2.6168999999999998</v>
+        <v>-2.9603000000000002</v>
       </c>
       <c r="E23">
-        <v>34.896599999999999</v>
+        <v>35.436300000000003</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <v>805</v>
+        <v>499</v>
       </c>
       <c r="H23">
-        <v>1749</v>
+        <v>1911</v>
       </c>
       <c r="I23">
-        <v>0.46</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J23">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="K23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" s="4">
-        <v>1.1599999999999999</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M23" s="4">
-        <v>-3.71</v>
+        <v>-0.84</v>
       </c>
       <c r="N23" s="4">
-        <v>0.68500000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="O23" s="4">
-        <v>2E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="P23" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="4">
-        <v>4.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>2</v>
       </c>
       <c r="S23" s="1">
-        <v>14.042</v>
+        <v>15.521000000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.7</v>
+        <v>1.179</v>
       </c>
       <c r="U23" s="1">
-        <v>26.725000000000001</v>
+        <v>29.602</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="0"/>
-        <v>27.085315461513602</v>
+        <f>(EXP(U23/1000)-1)*1000</f>
+        <v>30.044494652236907</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.710008185473415</v>
+        <f>(V23-30.91)/1.03091</f>
+        <v>-0.83955471162671191</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.7169073350619137</v>
+        <f>1000*LN(W23/1000+1)</f>
+        <v>-0.83990733506183257</v>
       </c>
       <c r="Y23" s="1">
-        <v>1.329</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="Z23">
-        <v>-69</v>
+        <v>-108</v>
       </c>
       <c r="AA23">
         <v>9</v>
       </c>
       <c r="AB23">
-        <v>15</v>
+        <v>-23</v>
       </c>
       <c r="AC23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>79</v>
+      <c r="A24" t="s">
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>-2.6168999999999998</v>
+        <v>-2.9603000000000002</v>
       </c>
       <c r="E24">
-        <v>34.896599999999999</v>
+        <v>35.436300000000003</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G24">
-        <v>805</v>
+        <v>499</v>
       </c>
       <c r="H24">
-        <v>1749</v>
+        <v>1911</v>
       </c>
       <c r="I24">
-        <v>0.46</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J24">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="K24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24" s="4">
-        <v>0.83</v>
+        <v>2.12</v>
       </c>
       <c r="M24" s="4">
-        <v>-3.19</v>
+        <v>-0.03</v>
       </c>
       <c r="N24" s="4">
-        <v>0.71799999999999997</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="O24" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="P24" s="4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="4">
-        <v>10.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" s="1">
-        <v>14.317</v>
+        <v>15.941000000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.77600000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="U24" s="1">
-        <v>27.247</v>
+        <v>30.411999999999999</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="0"/>
-        <v>27.621593952693591</v>
+        <f>(EXP(U24/1000)-1)*1000</f>
+        <v>30.879168690254978</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.1898090495837752</v>
+        <f>(V24-30.91)/1.03091</f>
+        <v>-2.9906887841830699E-2</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.19490733506177</v>
+        <f>1000*LN(W24/1000+1)</f>
+        <v>-2.9907335061766412E-2</v>
       </c>
       <c r="Y24" s="1">
-        <v>1.49</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="Z24">
-        <v>-69</v>
+        <v>-116</v>
       </c>
       <c r="AA24">
         <v>9</v>
       </c>
       <c r="AB24">
-        <v>22</v>
+        <v>-36</v>
       </c>
       <c r="AC24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD24">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>81</v>
+      <c r="A25" t="s">
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>-2.6168999999999998</v>
+        <v>-2.9355000000000002</v>
       </c>
       <c r="E25">
-        <v>34.896599999999999</v>
+        <v>35.247300000000003</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>805</v>
+        <v>558</v>
       </c>
       <c r="H25">
-        <v>1749</v>
+        <v>1862</v>
       </c>
       <c r="I25">
-        <v>0.46</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="J25">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25" s="4">
-        <v>0.94</v>
+        <v>1.89</v>
       </c>
       <c r="M25" s="4">
-        <v>-3.22</v>
+        <v>3.15</v>
       </c>
       <c r="N25" s="4">
-        <v>0.68</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="O25" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="P25" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="4">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>14.297000000000001</v>
+        <v>17.616</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>111</v>
       </c>
       <c r="U25" s="1">
-        <v>27.216999999999999</v>
+        <v>33.587000000000003</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="0"/>
-        <v>27.59076576730002</v>
+        <f>(EXP(U25/1000)-1)*1000</f>
+        <v>34.157411507424349</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.2197129067522674</v>
+        <f>(V25-30.91)/1.03091</f>
+        <v>3.1500436579569016</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.2249073350618582</v>
+        <f>1000*LN(W25/1000+1)</f>
+        <v>3.1450926649379798</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Z25">
-        <v>-74</v>
+        <v>-118</v>
       </c>
       <c r="AA25">
         <v>13</v>
       </c>
       <c r="AB25">
-        <v>10</v>
+        <v>-35</v>
       </c>
       <c r="AC25">
         <v>14</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>83</v>
+      <c r="A26" t="s">
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C26">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>-2.6168999999999998</v>
+        <v>-2.9355000000000002</v>
       </c>
       <c r="E26">
-        <v>34.896599999999999</v>
+        <v>35.247300000000003</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>805</v>
+        <v>558</v>
       </c>
       <c r="H26">
-        <v>1749</v>
+        <v>1862</v>
       </c>
       <c r="I26">
-        <v>0.46</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="J26">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L26" s="4">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="M26" s="4">
-        <v>-3.11</v>
+        <v>4.3</v>
       </c>
       <c r="N26" s="4">
-        <v>0.68899999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="O26" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="P26" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="4">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26" s="1">
-        <v>14.36</v>
+        <v>18.225000000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.32500000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="U26" s="1">
-        <v>27.327000000000002</v>
+        <v>34.732999999999997</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="0"/>
-        <v>27.703806968686571</v>
+        <f>(EXP(U26/1000)-1)*1000</f>
+        <v>35.343235248235239</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.1100610444300947</v>
+        <f>(V26-30.91)/1.03091</f>
+        <v>4.3003125861959228</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.1149073350618313</v>
+        <f>1000*LN(W26/1000+1)</f>
+        <v>4.2910926649381764</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.623</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="Z26">
-        <v>-69</v>
+        <v>-114</v>
       </c>
       <c r="AA26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB26">
-        <v>16</v>
+        <v>-25</v>
       </c>
       <c r="AC26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AE26">
         <v>1</v>
@@ -6450,603 +7175,603 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>22</v>
+      <c r="A27" t="s">
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>30.4909</v>
+        <v>39.6631</v>
       </c>
       <c r="E27">
-        <v>96.467699999999994</v>
+        <v>120.3155</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>1010</v>
+        <v>565</v>
       </c>
       <c r="H27">
-        <v>1721</v>
+        <v>1662</v>
       </c>
       <c r="I27">
-        <v>0.58679999999999999</v>
+        <v>0.33979999999999999</v>
       </c>
       <c r="J27">
-        <v>-3.5</v>
+        <v>-14</v>
       </c>
       <c r="K27" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="4">
-        <v>-3.4</v>
+        <v>-8.41</v>
       </c>
       <c r="M27" s="4">
-        <v>-3.2</v>
+        <v>-12.14</v>
       </c>
       <c r="N27" s="4">
-        <v>0.69</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="O27" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P27" s="4">
-        <v>25.6</v>
+        <v>10.6</v>
       </c>
       <c r="Q27" s="4">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="R27">
         <v>2</v>
       </c>
       <c r="S27" s="1">
-        <v>14.298999999999999</v>
+        <v>9.5549999999999997</v>
       </c>
       <c r="T27" s="1">
-        <v>1.127</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="U27" s="1">
-        <v>27.236999999999998</v>
+        <v>18.228000000000002</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="0"/>
-        <v>27.611317788134969</v>
+        <f>(EXP(U27/1000)-1)*1000</f>
+        <v>18.395144014514031</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.1997771016529395</v>
+        <f>(V27-30.91)/1.03091</f>
+        <v>-12.13962032135295</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.2049073350618182</v>
+        <f>1000*LN(W27/1000+1)</f>
+        <v>-12.213907335061903</v>
       </c>
       <c r="Y27" s="1">
-        <v>2.1349999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z27">
-        <v>-82</v>
+        <v>-69</v>
       </c>
       <c r="AA27">
         <v>9</v>
       </c>
       <c r="AB27">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AC27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD27">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="AE27">
         <v>1</v>
       </c>
       <c r="AF27" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>8.7883999999999993</v>
+      </c>
+      <c r="E28">
+        <v>39.661700000000003</v>
+      </c>
+      <c r="F28">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>80</v>
-      </c>
-      <c r="D28">
-        <v>30.6174</v>
-      </c>
-      <c r="E28">
-        <v>96.3</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
       <c r="G28">
-        <v>1022</v>
+        <v>726</v>
       </c>
       <c r="H28">
-        <v>1728</v>
+        <v>2134</v>
       </c>
       <c r="I28">
-        <v>0.59119999999999995</v>
+        <v>0.34</v>
       </c>
       <c r="J28">
-        <v>-3.5</v>
+        <v>-1.3</v>
       </c>
       <c r="K28" s="4">
         <v>1</v>
       </c>
       <c r="L28" s="4">
-        <v>-10.5</v>
+        <v>0.5</v>
       </c>
       <c r="M28" s="4">
-        <v>-3.4</v>
+        <v>-5</v>
       </c>
       <c r="N28" s="4">
-        <v>0.67100000000000004</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="O28" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="P28" s="4">
-        <v>32</v>
+        <v>25.2</v>
       </c>
       <c r="Q28" s="4">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R28">
         <v>2</v>
       </c>
       <c r="S28" s="1">
-        <v>14.193</v>
+        <v>13.353999999999999</v>
       </c>
       <c r="T28" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.106</v>
       </c>
       <c r="U28" s="1">
-        <v>27.036000000000001</v>
+        <v>25.428999999999998</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="0"/>
-        <v>27.404788670131186</v>
+        <f>(EXP(U28/1000)-1)*1000</f>
+        <v>25.755075074637368</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.4001138119416963</v>
+        <f>(V28-30.91)/1.03091</f>
+        <v>-5.0003636838934842</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.4059073350618583</v>
+        <f>1000*LN(W28/1000+1)</f>
+        <v>-5.0129073350617848</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="Z28">
-        <v>-82</v>
+        <v>-73</v>
       </c>
       <c r="AA28">
         <v>9</v>
       </c>
       <c r="AB28">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AC28">
         <v>10</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE28">
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>26</v>
+      <c r="A29" t="s">
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>30.4909</v>
+        <v>28.255600000000001</v>
       </c>
       <c r="E29">
-        <v>96.467699999999994</v>
+        <v>87.083799999999997</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1010</v>
+        <v>385</v>
       </c>
       <c r="H29">
-        <v>1721</v>
+        <v>1130</v>
       </c>
       <c r="I29">
-        <v>0.58679999999999999</v>
+        <v>0.34060000000000001</v>
       </c>
       <c r="J29">
-        <v>-3.5</v>
+        <v>-14.4</v>
       </c>
       <c r="K29" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29" s="4">
-        <v>-2.4</v>
+        <v>-6.78</v>
       </c>
       <c r="M29" s="4">
-        <v>-3.2</v>
+        <v>-17.39</v>
       </c>
       <c r="N29" s="4">
-        <v>0.69399999999999995</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="O29" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P29" s="4">
-        <v>24.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q29" s="4">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="S29" s="1">
-        <v>14.305999999999999</v>
+        <v>7.4850000000000003</v>
       </c>
       <c r="T29" s="1">
-        <v>0.43</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="U29" s="1">
-        <v>27.236999999999998</v>
+        <v>14.333</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="0"/>
-        <v>27.611317788134969</v>
+        <f>(EXP(U29/1000)-1)*1000</f>
+        <v>14.436209957742419</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.1997771016529395</v>
+        <f>(V29-30.91)/1.03091</f>
+        <v>-15.979852792443165</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.2049073350618182</v>
+        <f>1000*LN(W29/1000+1)</f>
+        <v>-16.108907335061918</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.82299999999999995</v>
+        <v>0.61</v>
       </c>
       <c r="Z29">
-        <v>-75</v>
+        <v>-82</v>
       </c>
       <c r="AA29">
         <v>9</v>
       </c>
       <c r="AB29">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC29">
         <v>10</v>
       </c>
       <c r="AD29">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="AE29">
         <v>1</v>
       </c>
       <c r="AF29" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>27</v>
+      <c r="A30" t="s">
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D30">
-        <v>30.6174</v>
+        <v>21.410699999999999</v>
       </c>
       <c r="E30">
-        <v>96.3</v>
+        <v>94.724299999999999</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>1022</v>
+        <v>751</v>
       </c>
       <c r="H30">
-        <v>1728</v>
+        <v>1778</v>
       </c>
       <c r="I30">
-        <v>0.59119999999999995</v>
+        <v>0.42230000000000001</v>
       </c>
       <c r="J30">
-        <v>-3.5</v>
+        <v>-6.2</v>
       </c>
       <c r="K30" s="4">
+        <v>4</v>
+      </c>
+      <c r="L30" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="M30" s="4">
+        <v>-7.1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="O30" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P30" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30" s="1">
+        <v>12.228999999999999</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="U30" s="1">
+        <v>23.317</v>
+      </c>
+      <c r="V30" s="1">
+        <f>(EXP(U30/1000)-1)*1000</f>
+        <v>23.590966459202669</v>
+      </c>
+      <c r="W30" s="2">
+        <f>(V30-30.91)/1.03091</f>
+        <v>-7.0995853574000947</v>
+      </c>
+      <c r="X30" s="2">
+        <f>1000*LN(W30/1000+1)</f>
+        <v>-7.1249073350618435</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Z30">
+        <v>-82</v>
+      </c>
+      <c r="AA30">
+        <v>7</v>
+      </c>
+      <c r="AB30">
+        <v>5</v>
+      </c>
+      <c r="AC30">
+        <v>7</v>
+      </c>
+      <c r="AD30">
+        <v>-6</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>632</v>
+      </c>
+      <c r="C31">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>-2.1654</v>
+      </c>
+      <c r="E31">
+        <v>33.973399999999998</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>846</v>
+      </c>
+      <c r="H31">
+        <v>1982</v>
+      </c>
+      <c r="I31">
+        <v>0.42680000000000001</v>
+      </c>
+      <c r="J31">
+        <v>-0.3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="M31" s="4">
+        <v>-1.56</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P31" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1">
+        <v>15.163</v>
+      </c>
+      <c r="T31" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="U31" s="1">
+        <v>28.881</v>
+      </c>
+      <c r="V31" s="1">
+        <f>(EXP(U31/1000)-1)*1000</f>
+        <v>29.302100236940021</v>
+      </c>
+      <c r="W31" s="2">
+        <f>(V31-30.91)/1.03091</f>
+        <v>-1.5596897528009035</v>
+      </c>
+      <c r="X31" s="2">
+        <f>1000*LN(W31/1000+1)</f>
+        <v>-1.5609073350617539</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Z31">
+        <v>-86</v>
+      </c>
+      <c r="AA31">
+        <v>10</v>
+      </c>
+      <c r="AB31">
+        <v>-4</v>
+      </c>
+      <c r="AC31">
+        <v>11</v>
+      </c>
+      <c r="AD31">
+        <v>2</v>
+      </c>
+      <c r="AE31">
         <v>1</v>
-      </c>
-      <c r="L30" s="4">
-        <v>-10.1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>-3.3</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="O30" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="P30" s="4">
-        <v>25.8</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30" s="1">
-        <v>14.252000000000001</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="U30" s="1">
-        <v>27.135999999999999</v>
-      </c>
-      <c r="V30" s="1">
-        <f t="shared" si="0"/>
-        <v>27.507534286193458</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.3004488401572805</v>
-      </c>
-      <c r="X30" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.305907335061713</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="Z30">
-        <v>-76</v>
-      </c>
-      <c r="AA30">
-        <v>9</v>
-      </c>
-      <c r="AB30">
-        <v>8</v>
-      </c>
-      <c r="AC30">
-        <v>10</v>
-      </c>
-      <c r="AD30">
-        <v>-1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>-2.9355000000000002</v>
-      </c>
-      <c r="E31">
-        <v>35.247300000000003</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-      <c r="G31">
-        <v>558</v>
-      </c>
-      <c r="H31">
-        <v>1862</v>
-      </c>
-      <c r="I31">
-        <v>0.29949999999999999</v>
-      </c>
-      <c r="J31">
-        <v>-1</v>
-      </c>
-      <c r="K31" s="4">
-        <v>5</v>
-      </c>
-      <c r="L31" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="M31" s="4">
-        <v>3.15</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="O31" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="P31" s="4">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>8</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31" s="1">
-        <v>17.616</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U31" s="1">
-        <v>33.587000000000003</v>
-      </c>
-      <c r="V31" s="1">
-        <f t="shared" si="0"/>
-        <v>34.157411507424349</v>
-      </c>
-      <c r="W31" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1500436579569016</v>
-      </c>
-      <c r="X31" s="2">
-        <f t="shared" si="2"/>
-        <v>3.1450926649379798</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z31">
-        <v>-118</v>
-      </c>
-      <c r="AA31">
-        <v>13</v>
-      </c>
-      <c r="AB31">
-        <v>-35</v>
-      </c>
-      <c r="AC31">
-        <v>14</v>
-      </c>
-      <c r="AD31">
-        <v>6</v>
-      </c>
-      <c r="AE31">
-        <v>2</v>
       </c>
       <c r="AF31" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>73</v>
+      <c r="A32" t="s">
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>632</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>-2.9355000000000002</v>
+        <v>-2.1654</v>
       </c>
       <c r="E32">
-        <v>35.247300000000003</v>
+        <v>33.973399999999998</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G32">
-        <v>558</v>
+        <v>846</v>
       </c>
       <c r="H32">
-        <v>1862</v>
+        <v>1982</v>
       </c>
       <c r="I32">
-        <v>0.29949999999999999</v>
+        <v>0.42680000000000001</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="K32" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L32" s="4">
-        <v>1.75</v>
+        <v>1.02</v>
       </c>
       <c r="M32" s="4">
-        <v>4.3</v>
+        <v>-1.81</v>
       </c>
       <c r="N32" s="4">
-        <v>0.70799999999999996</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="O32" s="4">
-        <v>0.02</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P32" s="4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="4">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" s="1">
-        <v>18.225000000000001</v>
+        <v>15.055</v>
       </c>
       <c r="T32" s="1">
-        <v>0.40799999999999997</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="U32" s="1">
-        <v>34.732999999999997</v>
+        <v>28.63</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="0"/>
-        <v>35.343235248235239</v>
+        <f>(EXP(U32/1000)-1)*1000</f>
+        <v>29.043777830598749</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3003125861959228</v>
+        <f>(V32-30.91)/1.03091</f>
+        <v>-1.8102668219352329</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2910926649381764</v>
+        <f>1000*LN(W32/1000+1)</f>
+        <v>-1.8119073350617729</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.77700000000000002</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="Z32">
-        <v>-114</v>
+        <v>-61</v>
       </c>
       <c r="AA32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AB32">
-        <v>-25</v>
+        <v>23</v>
       </c>
       <c r="AC32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE32">
         <v>1</v>
@@ -7056,199 +7781,199 @@
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>68</v>
+      <c r="A33" t="s">
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>632</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>-2.9603000000000002</v>
+        <v>-2.1654</v>
       </c>
       <c r="E33">
-        <v>35.436300000000003</v>
+        <v>33.973399999999998</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33">
-        <v>499</v>
+        <v>846</v>
       </c>
       <c r="H33">
-        <v>1911</v>
+        <v>1982</v>
       </c>
       <c r="I33">
-        <v>0.26100000000000001</v>
+        <v>0.42680000000000001</v>
       </c>
       <c r="J33">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="K33" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="4">
-        <v>-7.0000000000000007E-2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M33" s="4">
-        <v>-0.84</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="N33" s="4">
-        <v>0.69</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="O33" s="4">
-        <v>2.8000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="P33" s="4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="4">
-        <v>9</v>
+        <v>4.7</v>
       </c>
       <c r="R33">
         <v>2</v>
       </c>
       <c r="S33" s="1">
-        <v>15.521000000000001</v>
+        <v>14.686999999999999</v>
       </c>
       <c r="T33" s="1">
-        <v>1.179</v>
+        <v>0.21</v>
       </c>
       <c r="U33" s="1">
-        <v>29.602</v>
+        <v>27.949000000000002</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="0"/>
-        <v>30.044494652236907</v>
+        <f>(EXP(U33/1000)-1)*1000</f>
+        <v>28.343237578925429</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.83955471162671191</v>
+        <f>(V33-30.91)/1.03091</f>
+        <v>-2.4898026220276952</v>
       </c>
       <c r="X33" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.83990733506183257</v>
+        <f>1000*LN(W33/1000+1)</f>
+        <v>-2.4929073350617932</v>
       </c>
       <c r="Y33" s="1">
-        <v>2.2269999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="Z33">
-        <v>-108</v>
+        <v>-70</v>
       </c>
       <c r="AA33">
         <v>9</v>
       </c>
       <c r="AB33">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="AC33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD33">
+        <v>-1</v>
+      </c>
+      <c r="AE33">
         <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>2</v>
       </c>
       <c r="AF33" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>70</v>
+      <c r="A34" t="s">
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>632</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>-2.9603000000000002</v>
+        <v>-2.1654</v>
       </c>
       <c r="E34">
-        <v>35.436300000000003</v>
+        <v>33.973399999999998</v>
       </c>
       <c r="F34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G34">
-        <v>499</v>
+        <v>846</v>
       </c>
       <c r="H34">
-        <v>1911</v>
+        <v>1982</v>
       </c>
       <c r="I34">
-        <v>0.26100000000000001</v>
+        <v>0.42680000000000001</v>
       </c>
       <c r="J34">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="K34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="4">
-        <v>2.12</v>
+        <v>0.37</v>
       </c>
       <c r="M34" s="4">
-        <v>-0.03</v>
+        <v>-3.29</v>
       </c>
       <c r="N34" s="4">
-        <v>0.66500000000000004</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="O34" s="4">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P34" s="4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="R34">
         <v>3</v>
       </c>
       <c r="S34" s="1">
-        <v>15.941000000000001</v>
+        <v>14.273</v>
       </c>
       <c r="T34" s="1">
-        <v>0.69099999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="U34" s="1">
-        <v>30.411999999999999</v>
+        <v>27.146000000000001</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="0"/>
-        <v>30.879168690254978</v>
+        <f>(EXP(U34/1000)-1)*1000</f>
+        <v>27.51780941291182</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.9906887841830699E-2</v>
+        <f>(V34-30.91)/1.03091</f>
+        <v>-3.2904817948105851</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.9907335061766412E-2</v>
+        <f>1000*LN(W34/1000+1)</f>
+        <v>-3.2959073350618406</v>
       </c>
       <c r="Y34" s="1">
-        <v>1.3380000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="Z34">
-        <v>-116</v>
+        <v>-60</v>
       </c>
       <c r="AA34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB34">
-        <v>-36</v>
+        <v>27</v>
       </c>
       <c r="AC34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD34">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -7258,11 +7983,11 @@
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>85</v>
+      <c r="A35" t="s">
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>632</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -7322,15 +8047,15 @@
         <v>27.757999999999999</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="0"/>
+        <f>(EXP(U35/1000)-1)*1000</f>
         <v>28.146842776848537</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="1"/>
+        <f>(V35-30.91)/1.03091</f>
         <v>-2.6803088758004705</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="2"/>
+        <f>1000*LN(W35/1000+1)</f>
         <v>-2.6839073350618063</v>
       </c>
       <c r="Y35" s="1">
@@ -7359,401 +8084,401 @@
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>43</v>
+      <c r="A36" t="s">
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>632</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>35.191400000000002</v>
+        <v>-2.6168999999999998</v>
       </c>
       <c r="E36">
-        <v>116.1401</v>
+        <v>34.896599999999999</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G36">
-        <v>79</v>
+        <v>805</v>
       </c>
       <c r="H36">
-        <v>3162</v>
+        <v>1749</v>
       </c>
       <c r="I36">
-        <v>2.4899999999999999E-2</v>
+        <v>0.46</v>
       </c>
       <c r="J36">
-        <v>-7.6</v>
+        <v>-0.7</v>
       </c>
       <c r="K36" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" s="4">
-        <v>-2.35</v>
+        <v>0.91</v>
       </c>
       <c r="M36" s="4">
-        <v>-1.8</v>
+        <v>-2.39</v>
       </c>
       <c r="N36" s="4">
-        <v>0.71199999999999997</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="O36" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P36" s="4">
-        <v>15.3</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="4">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S36" s="1">
-        <v>14.968</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>111</v>
+        <v>14.739000000000001</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.623</v>
       </c>
       <c r="U36" s="1">
-        <v>28.64</v>
+        <v>28.048999999999999</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="0"/>
-        <v>29.054068319829483</v>
+        <f>(EXP(U36/1000)-1)*1000</f>
+        <v>28.446077044570917</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.8002848746937339</v>
+        <f>(V36-30.91)/1.03091</f>
+        <v>-2.3900466145726433</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.8019073350617623</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>111</v>
+        <f>1000*LN(W36/1000+1)</f>
+        <v>-2.3929073350617904</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1.1759999999999999</v>
       </c>
       <c r="Z36">
-        <v>-154</v>
+        <v>-71</v>
       </c>
       <c r="AA36">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB36">
-        <v>-67</v>
+        <v>16</v>
       </c>
       <c r="AC36">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36">
         <v>1</v>
       </c>
       <c r="AF36" t="s">
-        <v>254</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>45</v>
+      <c r="A37" t="s">
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>632</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D37">
-        <v>35.191400000000002</v>
+        <v>-2.6168999999999998</v>
       </c>
       <c r="E37">
-        <v>116.1401</v>
+        <v>34.896599999999999</v>
       </c>
       <c r="F37">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G37">
-        <v>79</v>
+        <v>805</v>
       </c>
       <c r="H37">
-        <v>3162</v>
+        <v>1749</v>
       </c>
       <c r="I37">
-        <v>2.4899999999999999E-2</v>
+        <v>0.46</v>
       </c>
       <c r="J37">
-        <v>-7.6</v>
+        <v>-0.7</v>
       </c>
       <c r="K37" s="4">
         <v>2</v>
       </c>
       <c r="L37" s="4">
-        <v>-3.94</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M37" s="4">
-        <v>-6.1</v>
+        <v>-3.71</v>
       </c>
       <c r="N37" s="4">
-        <v>0.69599999999999995</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O37" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="P37" s="4">
-        <v>20.399999999999999</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="4">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R37">
         <v>2</v>
       </c>
       <c r="S37" s="1">
-        <v>12.734999999999999</v>
+        <v>14.042</v>
       </c>
       <c r="T37" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.7</v>
       </c>
       <c r="U37" s="1">
-        <v>24.323</v>
+        <v>26.725000000000001</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="0"/>
-        <v>24.621217100645687</v>
+        <f>(EXP(U37/1000)-1)*1000</f>
+        <v>27.085315461513602</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="1"/>
-        <v>-6.1002249462652545</v>
+        <f>(V37-30.91)/1.03091</f>
+        <v>-3.710008185473415</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="2"/>
-        <v>-6.1189073350619108</v>
+        <f>1000*LN(W37/1000+1)</f>
+        <v>-3.7169073350619137</v>
       </c>
       <c r="Y37" s="1">
-        <v>1.9E-2</v>
+        <v>1.329</v>
       </c>
       <c r="Z37">
-        <v>-107</v>
+        <v>-69</v>
       </c>
       <c r="AA37">
         <v>9</v>
       </c>
       <c r="AB37">
-        <v>-17</v>
+        <v>15</v>
       </c>
       <c r="AC37">
         <v>10</v>
       </c>
       <c r="AD37">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AE37">
         <v>1</v>
       </c>
       <c r="AF37" t="s">
-        <v>254</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>-2.6168999999999998</v>
+      </c>
+      <c r="E38">
+        <v>34.896599999999999</v>
+      </c>
+      <c r="F38">
         <v>19</v>
       </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38">
-        <v>130</v>
-      </c>
-      <c r="D38">
-        <v>8.7883999999999993</v>
-      </c>
-      <c r="E38">
-        <v>39.661700000000003</v>
-      </c>
-      <c r="F38">
-        <v>23</v>
-      </c>
       <c r="G38">
-        <v>726</v>
+        <v>805</v>
       </c>
       <c r="H38">
-        <v>2134</v>
+        <v>1749</v>
       </c>
       <c r="I38">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="J38">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" s="4">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="M38" s="4">
-        <v>-5</v>
+        <v>-3.19</v>
       </c>
       <c r="N38" s="4">
-        <v>0.64500000000000002</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="O38" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="P38" s="4">
-        <v>25.2</v>
+        <v>14</v>
       </c>
       <c r="Q38" s="4">
-        <v>3.1</v>
+        <v>10.7</v>
       </c>
       <c r="R38">
         <v>2</v>
       </c>
       <c r="S38" s="1">
-        <v>13.353999999999999</v>
+        <v>14.317</v>
       </c>
       <c r="T38" s="1">
-        <v>0.106</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="U38" s="1">
-        <v>25.428999999999998</v>
+        <v>27.247</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="0"/>
-        <v>25.755075074637368</v>
+        <f>(EXP(U38/1000)-1)*1000</f>
+        <v>27.621593952693591</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.0003636838934842</v>
+        <f>(V38-30.91)/1.03091</f>
+        <v>-3.1898090495837752</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="2"/>
-        <v>-5.0129073350617848</v>
+        <f>1000*LN(W38/1000+1)</f>
+        <v>-3.19490733506177</v>
       </c>
       <c r="Y38" s="1">
-        <v>0.182</v>
+        <v>1.49</v>
       </c>
       <c r="Z38">
-        <v>-73</v>
+        <v>-69</v>
       </c>
       <c r="AA38">
         <v>9</v>
       </c>
       <c r="AB38">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AC38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD38">
         <v>-3</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38" t="s">
-        <v>192</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>87</v>
+      <c r="A39" t="s">
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>632</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D39">
-        <v>-2.1654</v>
+        <v>-2.6168999999999998</v>
       </c>
       <c r="E39">
-        <v>33.973399999999998</v>
+        <v>34.896599999999999</v>
       </c>
       <c r="F39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G39">
-        <v>846</v>
+        <v>805</v>
       </c>
       <c r="H39">
-        <v>1982</v>
+        <v>1749</v>
       </c>
       <c r="I39">
-        <v>0.42680000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="J39">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K39" s="4">
         <v>3</v>
       </c>
       <c r="L39" s="4">
-        <v>1.47</v>
+        <v>0.94</v>
       </c>
       <c r="M39" s="4">
-        <v>-1.56</v>
+        <v>-3.22</v>
       </c>
       <c r="N39" s="4">
-        <v>0.66900000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="O39" s="4">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P39" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="4">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S39" s="1">
-        <v>15.163</v>
-      </c>
-      <c r="T39" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>14.297000000000001</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="U39" s="1">
-        <v>28.881</v>
+        <v>27.216999999999999</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="0"/>
-        <v>29.302100236940021</v>
+        <f>(EXP(U39/1000)-1)*1000</f>
+        <v>27.59076576730002</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.5596897528009035</v>
+        <f>(V39-30.91)/1.03091</f>
+        <v>-3.2197129067522674</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.5609073350617539</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>7.9000000000000001E-2</v>
+        <f>1000*LN(W39/1000+1)</f>
+        <v>-3.2249073350618582</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="Z39">
-        <v>-86</v>
+        <v>-74</v>
       </c>
       <c r="AA39">
+        <v>13</v>
+      </c>
+      <c r="AB39">
         <v>10</v>
       </c>
-      <c r="AB39">
-        <v>-4</v>
-      </c>
       <c r="AC39">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE39">
         <v>1</v>
@@ -7763,98 +8488,98 @@
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>89</v>
+      <c r="A40" t="s">
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>632</v>
       </c>
       <c r="C40">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D40">
-        <v>-2.1654</v>
+        <v>-2.6168999999999998</v>
       </c>
       <c r="E40">
-        <v>33.973399999999998</v>
+        <v>34.896599999999999</v>
       </c>
       <c r="F40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G40">
-        <v>846</v>
+        <v>805</v>
       </c>
       <c r="H40">
-        <v>1982</v>
+        <v>1749</v>
       </c>
       <c r="I40">
-        <v>0.42680000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="J40">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="K40" s="4">
         <v>3</v>
       </c>
       <c r="L40" s="4">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="M40" s="4">
-        <v>-1.81</v>
+        <v>-3.11</v>
       </c>
       <c r="N40" s="4">
-        <v>0.68400000000000005</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="O40" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P40" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="4">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S40" s="1">
-        <v>15.055</v>
+        <v>14.36</v>
       </c>
       <c r="T40" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="U40" s="1">
-        <v>28.63</v>
+        <v>27.327000000000002</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="0"/>
-        <v>29.043777830598749</v>
+        <f>(EXP(U40/1000)-1)*1000</f>
+        <v>27.703806968686571</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.8102668219352329</v>
+        <f>(V40-30.91)/1.03091</f>
+        <v>-3.1100610444300947</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.8119073350617729</v>
+        <f>1000*LN(W40/1000+1)</f>
+        <v>-3.1149073350618313</v>
       </c>
       <c r="Y40" s="1">
-        <v>0.54700000000000004</v>
+        <v>0.623</v>
       </c>
       <c r="Z40">
-        <v>-61</v>
+        <v>-69</v>
       </c>
       <c r="AA40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB40">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AC40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE40">
         <v>1</v>
@@ -7864,95 +8589,95 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>91</v>
+      <c r="A41" t="s">
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>626</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>-2.1654</v>
+        <v>30.4909</v>
       </c>
       <c r="E41">
-        <v>33.973399999999998</v>
+        <v>96.467699999999994</v>
       </c>
       <c r="F41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G41">
-        <v>846</v>
+        <v>1010</v>
       </c>
       <c r="H41">
-        <v>1982</v>
+        <v>1721</v>
       </c>
       <c r="I41">
-        <v>0.42680000000000001</v>
+        <v>0.58679999999999999</v>
       </c>
       <c r="J41">
-        <v>-0.3</v>
+        <v>-3.5</v>
       </c>
       <c r="K41" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4">
-        <v>1.1200000000000001</v>
+        <v>-3.4</v>
       </c>
       <c r="M41" s="4">
-        <v>-2.4900000000000002</v>
+        <v>-3.2</v>
       </c>
       <c r="N41" s="4">
-        <v>0.69899999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="O41" s="4">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P41" s="4">
-        <v>20</v>
+        <v>25.6</v>
       </c>
       <c r="Q41" s="4">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="R41">
         <v>2</v>
       </c>
       <c r="S41" s="1">
-        <v>14.686999999999999</v>
+        <v>14.298999999999999</v>
       </c>
       <c r="T41" s="1">
-        <v>0.21</v>
+        <v>1.127</v>
       </c>
       <c r="U41" s="1">
-        <v>27.949000000000002</v>
+        <v>27.236999999999998</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="0"/>
-        <v>28.343237578925429</v>
+        <f>(EXP(U41/1000)-1)*1000</f>
+        <v>27.611317788134969</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.4898026220276952</v>
+        <f>(V41-30.91)/1.03091</f>
+        <v>-3.1997771016529395</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.4929073350617932</v>
+        <f>1000*LN(W41/1000+1)</f>
+        <v>-3.2049073350618182</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.39400000000000002</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="Z41">
-        <v>-70</v>
+        <v>-82</v>
       </c>
       <c r="AA41">
         <v>9</v>
       </c>
       <c r="AB41">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AC41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD41">
         <v>-1</v>
@@ -7961,718 +8686,694 @@
         <v>1</v>
       </c>
       <c r="AF41" t="s">
-        <v>598</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>93</v>
+      <c r="A42" t="s">
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>626</v>
       </c>
       <c r="C42">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>-2.1654</v>
+        <v>30.4909</v>
       </c>
       <c r="E42">
-        <v>33.973399999999998</v>
+        <v>96.467699999999994</v>
       </c>
       <c r="F42">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G42">
-        <v>846</v>
+        <v>1010</v>
       </c>
       <c r="H42">
-        <v>1982</v>
+        <v>1721</v>
       </c>
       <c r="I42">
-        <v>0.42680000000000001</v>
+        <v>0.58679999999999999</v>
       </c>
       <c r="J42">
-        <v>-0.3</v>
+        <v>-3.5</v>
       </c>
       <c r="K42" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4">
-        <v>0.37</v>
+        <v>-2.4</v>
       </c>
       <c r="M42" s="4">
-        <v>-3.29</v>
+        <v>-3.2</v>
       </c>
       <c r="N42" s="4">
-        <v>0.70299999999999996</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="O42" s="4">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P42" s="4">
-        <v>19</v>
+        <v>24.2</v>
       </c>
       <c r="Q42" s="4">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42" s="1">
-        <v>14.273</v>
+        <v>14.305999999999999</v>
       </c>
       <c r="T42" s="1">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="U42" s="1">
-        <v>27.146000000000001</v>
+        <v>27.236999999999998</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="0"/>
-        <v>27.51780941291182</v>
+        <f>(EXP(U42/1000)-1)*1000</f>
+        <v>27.611317788134969</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.2904817948105851</v>
+        <f>(V42-30.91)/1.03091</f>
+        <v>-3.1997771016529395</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.2959073350618406</v>
+        <f>1000*LN(W42/1000+1)</f>
+        <v>-3.2049073350618182</v>
       </c>
       <c r="Y42" s="1">
-        <v>1.351</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="Z42">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="AA42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB42">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AC42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD42">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE42">
         <v>1</v>
       </c>
       <c r="AF42" t="s">
-        <v>598</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>53</v>
+      <c r="A43" t="s">
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>626</v>
       </c>
       <c r="C43">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D43">
-        <v>22.8508</v>
+        <v>30.6174</v>
       </c>
       <c r="E43">
-        <v>94.355900000000005</v>
+        <v>96.3</v>
       </c>
       <c r="F43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G43">
-        <v>1414</v>
+        <v>1022</v>
       </c>
       <c r="H43">
-        <v>1658</v>
+        <v>1728</v>
       </c>
       <c r="I43">
-        <v>0.85240000000000005</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="J43">
-        <v>-5.2</v>
+        <v>-3.5</v>
       </c>
       <c r="K43" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4">
-        <v>-13.9</v>
+        <v>-10.5</v>
       </c>
       <c r="M43" s="4">
-        <v>-4</v>
+        <v>-3.4</v>
       </c>
       <c r="N43" s="4">
-        <v>0.68</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="O43" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P43" s="4">
-        <v>25.7</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="4">
-        <v>2.2000000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S43" s="1">
-        <v>13.88</v>
+        <v>14.193</v>
       </c>
       <c r="T43" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="U43" s="1">
-        <v>26.434000000000001</v>
+        <v>27.036000000000001</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="0"/>
-        <v>26.786477117802356</v>
+        <f>(EXP(U43/1000)-1)*1000</f>
+        <v>27.404788670131186</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.9998863937663272</v>
+        <f>(V43-30.91)/1.03091</f>
+        <v>-3.4001138119416963</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.0079073350617502</v>
+        <f>1000*LN(W43/1000+1)</f>
+        <v>-3.4059073350618583</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Z43">
-        <v>-77</v>
+        <v>-82</v>
       </c>
       <c r="AA43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB43">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="AC43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>626</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>30.6174</v>
+      </c>
+      <c r="E44">
+        <v>96.3</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>1022</v>
+      </c>
+      <c r="H44">
+        <v>1728</v>
+      </c>
+      <c r="I44">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="J44">
+        <v>-3.5</v>
+      </c>
+      <c r="K44" s="4">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>11.148099999999999</v>
-      </c>
-      <c r="E44">
-        <v>40.335700000000003</v>
-      </c>
-      <c r="F44">
-        <v>26</v>
-      </c>
-      <c r="G44">
-        <v>461</v>
-      </c>
-      <c r="H44">
-        <v>2284</v>
-      </c>
-      <c r="I44">
-        <v>0.20180000000000001</v>
-      </c>
-      <c r="J44">
-        <v>-1.3</v>
-      </c>
-      <c r="K44" s="4">
-        <v>2</v>
-      </c>
       <c r="L44" s="4">
-        <v>-2.5</v>
+        <v>-10.1</v>
       </c>
       <c r="M44" s="4">
-        <v>-5.5</v>
+        <v>-3.3</v>
       </c>
       <c r="N44" s="4">
-        <v>0.628</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="O44" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P44" s="4">
-        <v>29</v>
+        <v>25.8</v>
       </c>
       <c r="Q44" s="4">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="R44">
         <v>2</v>
       </c>
       <c r="S44" s="1">
-        <v>13.077999999999999</v>
+        <v>14.252000000000001</v>
       </c>
       <c r="T44" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="U44" s="1">
-        <v>24.927</v>
+        <v>27.135999999999999</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="0"/>
-        <v>25.240275252516263</v>
+        <f>(EXP(U44/1000)-1)*1000</f>
+        <v>27.507534286193458</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.4997281503562263</v>
+        <f>(V44-30.91)/1.03091</f>
+        <v>-3.3004488401572805</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="2"/>
-        <v>-5.5149073350618165</v>
+        <f>1000*LN(W44/1000+1)</f>
+        <v>-3.305907335061713</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.16800000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="Z44">
-        <v>-83</v>
+        <v>-76</v>
       </c>
       <c r="AA44">
         <v>9</v>
       </c>
       <c r="AB44">
+        <v>8</v>
+      </c>
+      <c r="AC44">
+        <v>10</v>
+      </c>
+      <c r="AD44">
         <v>-1</v>
       </c>
-      <c r="AC44">
-        <v>9</v>
-      </c>
-      <c r="AD44">
-        <v>-2</v>
-      </c>
       <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>626</v>
+      </c>
+      <c r="C45">
+        <v>130</v>
+      </c>
+      <c r="D45">
+        <v>31.945799999999998</v>
+      </c>
+      <c r="E45">
+        <v>96.056299999999993</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>1015</v>
+      </c>
+      <c r="H45">
+        <v>1689</v>
+      </c>
+      <c r="I45">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="J45">
+        <v>-3.9</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>-3.9</v>
+      </c>
+      <c r="M45" s="4">
+        <v>-3.8</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P45" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>13.986000000000001</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="U45" s="1">
+        <v>26.635000000000002</v>
+      </c>
+      <c r="V45" s="1">
+        <f>(EXP(U45/1000)-1)*1000</f>
+        <v>26.992881942693003</v>
+      </c>
+      <c r="W45" s="2">
+        <f>(V45-30.91)/1.03091</f>
+        <v>-3.7996702498831101</v>
+      </c>
+      <c r="X45" s="2">
+        <f>1000*LN(W45/1000+1)</f>
+        <v>-3.8069073350617719</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="Z45">
+        <v>-77</v>
+      </c>
+      <c r="AA45">
+        <v>13</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>13</v>
+      </c>
+      <c r="AD45">
         <v>0</v>
       </c>
-      <c r="AF44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45">
-        <v>170</v>
-      </c>
-      <c r="D45">
-        <v>21.410699999999999</v>
-      </c>
-      <c r="E45">
-        <v>94.724299999999999</v>
-      </c>
-      <c r="F45">
-        <v>26</v>
-      </c>
-      <c r="G45">
-        <v>751</v>
-      </c>
-      <c r="H45">
-        <v>1778</v>
-      </c>
-      <c r="I45">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="J45">
-        <v>-6.2</v>
-      </c>
-      <c r="K45" s="4">
-        <v>4</v>
-      </c>
-      <c r="L45" s="4">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="M45" s="4">
-        <v>-7.1</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="O45" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="P45" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R45">
-        <v>4</v>
-      </c>
-      <c r="S45" s="1">
-        <v>12.228999999999999</v>
-      </c>
-      <c r="T45" s="1">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="U45" s="1">
-        <v>23.317</v>
-      </c>
-      <c r="V45" s="1">
-        <f t="shared" si="0"/>
-        <v>23.590966459202669</v>
-      </c>
-      <c r="W45" s="2">
-        <f t="shared" si="1"/>
-        <v>-7.0995853574000947</v>
-      </c>
-      <c r="X45" s="2">
-        <f t="shared" si="2"/>
-        <v>-7.1249073350618435</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="Z45">
-        <v>-82</v>
-      </c>
-      <c r="AA45">
-        <v>7</v>
-      </c>
-      <c r="AB45">
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46">
         <v>5</v>
       </c>
-      <c r="AC45">
-        <v>7</v>
-      </c>
-      <c r="AD45">
-        <v>-6</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46">
+      <c r="D46">
+        <v>28.285</v>
+      </c>
+      <c r="E46">
+        <v>87.384699999999995</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>893</v>
+      </c>
+      <c r="H46">
+        <v>1342</v>
+      </c>
+      <c r="I46">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J46">
+        <v>-12.2</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M46" s="4">
+        <v>-7.9</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>11.757</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U46" s="1">
+        <v>22.510999999999999</v>
+      </c>
+      <c r="V46" s="1">
+        <f>(EXP(U46/1000)-1)*1000</f>
+        <v>22.766284531698709</v>
+      </c>
+      <c r="W46" s="2">
+        <f>(V46-30.91)/1.03091</f>
+        <v>-7.8995406663057794</v>
+      </c>
+      <c r="X46" s="2">
+        <f>1000*LN(W46/1000+1)</f>
+        <v>-7.9309073350617973</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z46">
+        <v>-128</v>
+      </c>
+      <c r="AA46">
         <v>13</v>
       </c>
-      <c r="D46">
-        <v>11.1653</v>
-      </c>
-      <c r="E46">
-        <v>40.494999999999997</v>
-      </c>
-      <c r="F46">
-        <v>27</v>
-      </c>
-      <c r="G46">
-        <v>403</v>
-      </c>
-      <c r="H46">
-        <v>2318</v>
-      </c>
-      <c r="I46">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="J46">
-        <v>-1.3</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1</v>
-      </c>
-      <c r="L46" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="M46" s="4">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="O46" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="P46" s="4">
-        <v>35.9</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="R46">
-        <v>2</v>
-      </c>
-      <c r="S46" s="1">
-        <v>14.756</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="U46" s="1">
-        <v>28.138999999999999</v>
-      </c>
-      <c r="V46" s="1">
-        <f t="shared" si="0"/>
-        <v>28.538641356836479</v>
-      </c>
-      <c r="W46" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.3002576783264508</v>
-      </c>
-      <c r="X46" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.3029073350617755</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="Z46">
-        <v>-101</v>
-      </c>
-      <c r="AA46">
-        <v>9</v>
-      </c>
       <c r="AB46">
-        <v>-24</v>
+        <v>-29</v>
       </c>
       <c r="AC46">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD46">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="AE46">
         <v>1</v>
       </c>
       <c r="AF46" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>7</v>
+      <c r="A47" t="s">
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>11.1653</v>
+        <v>28.285</v>
       </c>
       <c r="E47">
-        <v>40.494999999999997</v>
+        <v>87.384699999999995</v>
       </c>
       <c r="F47">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>403</v>
+        <v>893</v>
       </c>
       <c r="H47">
-        <v>2318</v>
+        <v>1342</v>
       </c>
       <c r="I47">
-        <v>0.17380000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="J47">
-        <v>-1.3</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
+        <v>-12.2</v>
       </c>
       <c r="L47" s="4">
-        <v>-2.9</v>
+        <v>1.5</v>
       </c>
       <c r="M47" s="4">
-        <v>-2</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="O47" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="P47" s="4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>3.5</v>
+        <v>-17</v>
       </c>
       <c r="R47">
         <v>2</v>
       </c>
       <c r="S47" s="1">
-        <v>14.925000000000001</v>
+        <v>6.9459999999999997</v>
       </c>
       <c r="T47" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.184</v>
       </c>
       <c r="U47" s="1">
-        <v>28.44</v>
+        <v>13.295999999999999</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="0"/>
-        <v>28.848278085874757</v>
+        <f>(EXP(U47/1000)-1)*1000</f>
+        <v>13.384784866148802</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.9999048550554785</v>
+        <f>(V47-30.91)/1.03091</f>
+        <v>-16.999752775558679</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="2"/>
-        <v>-2.0019073350619134</v>
+        <f>1000*LN(W47/1000+1)</f>
+        <v>-17.145907335061793</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="Z47">
-        <v>-92</v>
+        <v>-74</v>
       </c>
       <c r="AA47">
         <v>9</v>
       </c>
       <c r="AB47">
-        <v>-16</v>
+        <v>25</v>
       </c>
       <c r="AC47">
         <v>10</v>
       </c>
       <c r="AD47">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="AE47">
         <v>1</v>
       </c>
       <c r="AF47" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>10</v>
+      <c r="A48" t="s">
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <v>11.1653</v>
+        <v>22.8508</v>
       </c>
       <c r="E48">
-        <v>40.494999999999997</v>
+        <v>94.355900000000005</v>
       </c>
       <c r="F48">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G48">
-        <v>403</v>
+        <v>1414</v>
       </c>
       <c r="H48">
-        <v>2318</v>
+        <v>1658</v>
       </c>
       <c r="I48">
-        <v>0.17380000000000001</v>
+        <v>0.85240000000000005</v>
       </c>
       <c r="J48">
-        <v>-1.3</v>
+        <v>-5.2</v>
       </c>
       <c r="K48" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L48" s="4">
-        <v>-1.5</v>
+        <v>-13.9</v>
       </c>
       <c r="M48" s="4">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="N48" s="4">
-        <v>0.629</v>
+        <v>0.68</v>
       </c>
       <c r="O48" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="P48" s="4">
-        <v>28.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q48" s="4">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S48" s="1">
-        <v>14.144</v>
+        <v>13.88</v>
       </c>
       <c r="T48" s="1">
-        <v>0.26800000000000002</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="U48" s="1">
-        <v>26.936</v>
+        <v>26.434000000000001</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="0"/>
-        <v>27.302053328116969</v>
+        <f>(EXP(U48/1000)-1)*1000</f>
+        <v>26.786477117802356</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.4997688177270869</v>
+        <f>(V48-30.91)/1.03091</f>
+        <v>-3.9998863937663272</v>
       </c>
       <c r="X48" s="2">
-        <f t="shared" si="2"/>
-        <v>-3.5059073350617354</v>
+        <f>1000*LN(W48/1000+1)</f>
+        <v>-4.0079073350617502</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.51100000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="Z48">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="AA48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AF48" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF48">
+      <sortCondition ref="I1:I48"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8680,8 +9381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N221"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="L101" sqref="A5:L101"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F101" sqref="F100:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
